--- a/chipSolver/data/new.xlsx
+++ b/chipSolver/data/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
   <si>
     <t>netlist</t>
   </si>
@@ -118,6 +118,9 @@
     <t>[(55, 1038), (55, 1100), (57, 1093), (58, 1229), (59, 1167), (59, 1167), (60, 1194), (60, 1197), (61, 1298), (61, 1278), (62, 1339), (62, 1333), (62, 1327), (62, 1322), (62, 1319), (63, 1365), (63, 1351), (63, 1351), (64, 1417), (64, 1417), (64, 1417), (64, 1417), (64, 1413), (64, 1412), (64, 1409), (64, 1401), (64, 1401), (64, 1389), (64, 1389), (64, 1389), (64, 1389), (64, 1387), (64, 1385), (64, 1370), (64, 1370), (64, 1368), (64, 1365), (64, 1365), (64, 1364), (64, 1361), (64, 1361), (64, 1361), (64, 1359), (64, 1357), (64, 1357), (64, 1347), (64, 1335), (64, 1335), (64, 1336), (64, 1336), (64, 1333), (64, 1322), (64, 1311), (64, 1311), (64, 1309), (64, 1305), (64, 1303), (64, 1300), (64, 1299), (64, 1299), (64, 1296), (64, 1294), (64, 1294), (64, 1290), (64, 1286), (64, 1286), (64, 1282), (64, 1282), (64, 1278), (64, 1278), (64, 1278), (64, 1276), (64, 1274), (64, 1272), (64, 1272), (64, 1272), (64, 1272), (64, 1272), (64, 1272), (64, 1274), (64, 1272), (64, 1272), (64, 1272), (64, 1272), (64, 1270), (64, 1270), (64, 1270), (64, 1268), (65, 1305), (65, 1305), (65, 1305), (66, 1388), (66, 1388), (66, 1374), (66, 1374), (66, 1374), (66, 1366), (66, 1374), (66, 1366), (66, 1366), (66, 1366), (66, 1366), (66, 1366), (66, 1366), (66, 1364), (66, 1364), (66, 1364), (66, 1358), (66, 1358), (66, 1358), (66, 1344), (66, 1344), (66, 1342), (66, 1342), (66, 1342), (66, 1342), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1342), (66, 1342), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1340), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1338), (66, 1332), (66, 1332), (66, 1332), (66, 1332), (66, 1330), (66, 1330), (66, 1330), (66, 1330), (66, 1330), (66, 1330), (66, 1330), (66, 1326), (66, 1318), (66, 1318), (67, 1421), (67, 1421), (67, 1417), (68, 1426), (68, 1426), (68, 1426), (68, 1424), (68, 1424), (68, 1424), (68, 1424), (68, 1424), (68, 1424), (68, 1424), (68, 1424), (68, 1422), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1414), (68, 1408), (68, 1408), (68, 1408), (68, 1408), (68, 1394), (68, 1394), (68, 1386), (68, 1386), (68, 1384), (68, 1384), (68, 1384), (68, 1382), (68, 1382), (68, 1382), (68, 1382), (68, 1382), (68, 1382), (68, 1380), (68, 1380), (68, 1378), (68, 1376), (68, 1374), (68, 1366), (68, 1366), (68, 1360), (68, 1358), (68, 1358), (68, 1354), (68, 1352), (68, 1352), (68, 1352), (68, 1350), (68, 1350), (68, 1350), (68, 1350), (68, 1350), (68, 1348), (68, 1348), (68, 1348), (68, 1348), (68, 1314), (68, 1314), (68, 1314), (68, 1314), (68, 1312), (68, 1312), (68, 1312), (68, 1312), (68, 1312), (68, 1312), (68, 1312), (68, 1312), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (67, 1271), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1310), (68, 1308), (68, 1308), (68, 1308), (68, 1306), (68, 1306), (68, 1306), (68, 1306), (67, 1279), (67, 1279), (68, 1306), (68, 1306), (68, 1306), (68, 1306), (68, 1306), (68, 1306), (68, 1306), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1304), (68, 1298), (68, 1298), (68, 1298), (68, 1298), (68, 1298), (68, 1294), (68, 1294), (68, 1292), (68, 1292), (68, 1292), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1290), (68, 1288), (68, 1288), (68, 1288), (68, 1286), (68, 1286), (68, 1286), (68, 1286), (68, 1286), (68, 1296), (68, 1296), (68, 1296), (68, 1296), (68, 1294), (68, 1294), (68, 1294), (68, 1294), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1292), (68, 1286), (68, 1286), (68, 1286), (68, 1286), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1282), (68, 1337), (68, 1357), (68, 1357), (68, 1346), (68, 1346), (68, 1344), (68, 1344), (68, 1344), (68, 1344), (68, 1344), (67, 1342), (67, 1316), (67, 1312), (67, 1312), (67, 1266), (68, 1384), (68, 1306), (68, 1300), (68, 1300), (68, 1300), (68, 1298), (68, 1292), (68, 1288), (68, 1286), (68, 1286), (68, 1286), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1284), (68, 1278), (68, 1276), (68, 1276), (68, 1276), (68, 1276), (68, 1276), (68, 1272), (68, 1272), (68, 1272), (68, 1268), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1270), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1268), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1266), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (69, 1398), (69, 1398), (69, 1398), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1394), (69, 1392), (69, 1390), (69, 1390), (69, 1390), (69, 1390), (69, 1390), (69, 1388), (69, 1388), (69, 1388), (69, 1388), (69, 1386), (69, 1378), (69, 1360), (69, 1388), (69, 1378), (69, 1378), (69, 1368), (69, 1368), (69, 1368), (69, 1368), (69, 1368), (69, 1344), (69, 1344), (69, 1344), (69, 1344), (69, 1338), (69, 1338), (69, 1338), (69, 1328), (69, 1328), (69, 1328), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1324), (69, 1322), (69, 1322), (69, 1322), (69, 1322), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1320), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1314), (69, 1312), (69, 1312), (69, 1312), (69, 1312), (69, 1310), (69, 1310), (69, 1310), (69, 1310), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1308), (69, 1304), (69, 1304), (69, 1304), (69, 1304), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (68, 1315), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1274), (68, 1278), (68, 1278), (68, 1266), (68, 1266), (68, 1266), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1264), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1262), (68, 1260), (68, 1260), (68, 1260), (68, 1262), (68, 1260), (68, 1257), (69, 1304), (69, 1304), (69, 1304), (69, 1304), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1300), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (69, 1302), (68, 1279), (69, 1304), (69, 1304), (69, 1304), (69, 1302), (69, 1302), (69, 1302), (69, 1300), (69, 1300), (69, 1300), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1298), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1296), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1288), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1332), (69, 1332), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1286), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1278), (69, 1272), (69, 1272), (69, 1272), (69, 1272), (69, 1272), (69, 1272), (69, 1272), (69, 1272), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1268), (69, 1280), (69, 1280), (69, 1266), (69, 1266), (69, 1266), (69, 1264), (69, 1264), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1266), (69, 1264), (69, 1264), (69, 1260), (69, 1260), (69, 1260), (69, 1260), (69, 1260), (69, 1258), (69, 1258), (69, 1258), (69, 1258), (69, 1258), (68, 1224), (69, 1258), (69, 1256), (69, 1256), (69, 1256), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1254), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1248), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1246), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1242), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1238), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1232), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1234), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (68, 1193), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1230), (69, 1242), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (69, 1232), (68, 1225), (68, 1225), (69, 1232), (69, 1232), (69, 1230), (69, 1230), (69, 1230), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1228), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1226), (69, 1224), (69, 1224), (69, 1224), (69, 1222), (69, 1222), (69, 1222), (69, 1222), (69, 1222), (69, 1220), (69, 1220), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (68, 1189), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (68, 1188), (68, 1184), (68, 1184), (68, 1184), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1220), (69, 1218), (69, 1218), (69, 1216), (69, 1216), (69, 1216), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1212), (69, 1212), (69, 1230), (69, 1230), (69, 1212), (69, 1212), (69, 1212), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (68, 1195), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (68, 1184), (68, 1184), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1208), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1198), (68, 1180), (69, 1256), (69, 1256), (69, 1256), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1224), (69, 1222), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1218), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1216), (69, 1214), (69, 1214), (69, 1214), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (68, 1201), (68, 1201), (68, 1201), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1210), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1214), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1212), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1210), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1208), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1206), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1204), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1200), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1198), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1196), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194), (69, 1194)]</t>
   </si>
   <si>
+    <t>[(61, 1321), (59, 1224), (59, 1222), (59, 1220), (59, 1215), (59, 1210), (59, 1205), (59, 1207), (59, 1205), (60, 1244)]</t>
+  </si>
+  <si>
     <t>[((12, 6, 0), (15, 1, 0)), ((1, 3, 0), (9, 10, 0)), ((13, 13, 0), (6, 8, 0)), ((10, 12, 0), (6, 15, 0)), ((4, 12, 0), (7, 8, 0)), ((1, 9, 0), (6, 14, 0)), ((10, 1, 0), (12, 11, 0)), ((10, 12, 0), (7, 8, 0)), ((9, 10, 0), (12, 6, 0)), ((10, 1, 0), (6, 9, 0)), ((15, 12, 0), (1, 1, 0)), ((3, 2, 0), (6, 3, 0)), ((2, 12, 0), (16, 5, 0))]</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>[((1, 3, 0), (9, 10, 0))]</t>
   </si>
   <si>
+    <t>[((4, 12, 0), (8, 4, 0)), ((15, 3, 0), (11, 5, 0)), ((16, 7, 0), (6, 9, 0)), ((15, 6, 0), (10, 5, 0)), ((10, 1, 0), (7, 12, 0)), ((7, 12, 0), (11, 8, 0)), ((8, 15, 0), (4, 5, 0)), ((13, 13, 0), (6, 8, 0)), ((1, 1, 0), (8, 15, 0)), ((1, 3, 0), (10, 12, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=21, tm_hour=15, tm_min=38, tm_sec=37, tm_wday=1, tm_yday=141, tm_isdst=1)</t>
   </si>
   <si>
@@ -271,6 +277,9 @@
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=22, tm_hour=9, tm_min=36, tm_sec=0, tm_wday=2, tm_yday=142, tm_isdst=1)</t>
   </si>
   <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=22, tm_hour=10, tm_min=5, tm_sec=30, tm_wday=2, tm_yday=142, tm_isdst=1)</t>
+  </si>
+  <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 400.0, 10.0, 0.2, 10.0, 0.0, 0.0]</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
   </si>
   <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 2000.0, 20.0, 0.4, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 50.0, 10.0, 0.4, 0.0, 0.0, 0.0]</t>
   </si>
 </sst>
 </file>
@@ -644,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,13 +747,13 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -785,13 +797,13 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -835,13 +847,13 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -885,13 +897,13 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <v>20</v>
@@ -935,13 +947,13 @@
         <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -985,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <v>20</v>
@@ -1035,13 +1047,13 @@
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -1085,13 +1097,13 @@
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -1135,13 +1147,13 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P10">
         <v>20</v>
@@ -1185,13 +1197,13 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P11">
         <v>20</v>
@@ -1235,13 +1247,13 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P12">
         <v>20</v>
@@ -1288,10 +1300,10 @@
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P13">
         <v>20</v>
@@ -1338,10 +1350,10 @@
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P14">
         <v>20</v>
@@ -1385,13 +1397,13 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15">
         <v>20</v>
@@ -1438,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -1485,13 +1497,13 @@
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -1538,10 +1550,10 @@
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P18">
         <v>20</v>
@@ -1588,10 +1600,10 @@
         <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P19">
         <v>22</v>
@@ -1638,10 +1650,10 @@
         <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P20">
         <v>22</v>
@@ -1688,10 +1700,10 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P21">
         <v>22</v>
@@ -1738,10 +1750,10 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P22">
         <v>22</v>
@@ -1788,10 +1800,10 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P23">
         <v>22</v>
@@ -1835,13 +1847,13 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -1885,13 +1897,13 @@
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -1935,13 +1947,13 @@
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P26">
         <v>21</v>
@@ -1985,13 +1997,13 @@
         <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P27">
         <v>21</v>
@@ -2038,10 +2050,10 @@
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P28">
         <v>22</v>
@@ -2088,10 +2100,10 @@
         <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P29">
         <v>22</v>
@@ -2135,13 +2147,13 @@
         <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P30">
         <v>22</v>
@@ -2185,13 +2197,13 @@
         <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P31">
         <v>20</v>
@@ -2235,13 +2247,13 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P32">
         <v>22</v>
@@ -2285,16 +2297,66 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P33">
         <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D34">
+        <v>1242</v>
+      </c>
+      <c r="E34">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>20.7</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>161.1148223876953</v>
+      </c>
+      <c r="K34">
+        <v>1.946708463949843</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/chipSolver/data/new.xlsx
+++ b/chipSolver/data/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="683">
   <si>
     <t>netlist</t>
   </si>
@@ -778,6 +778,9 @@
     <t>[((2, 10, 0), (2, 8, 0))]</t>
   </si>
   <si>
+    <t>[((13, 13, 0), (12, 2, 0)), ((8, 15, 0), (4, 5, 0)), ((7, 12, 0), (6, 1, 0)), ((10, 12, 0), (7, 8, 0)), ((4, 12, 0), (7, 8, 0)), ((1, 3, 0), (9, 10, 0)), ((15, 3, 0), (11, 5, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=21, tm_hour=15, tm_min=38, tm_sec=37, tm_wday=1, tm_yday=141, tm_isdst=1)</t>
   </si>
   <si>
@@ -1960,6 +1963,9 @@
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=10, tm_min=4, tm_sec=21, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
   </si>
   <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=10, tm_min=50, tm_sec=15, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 400.0, 10.0, 0.2, 10.0, 0.0, 0.0]</t>
   </si>
   <si>
@@ -2054,6 +2060,9 @@
   </si>
   <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 30.0, 10.0, 0.4, 3.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 3.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 1.0, 10000.0, 20.0, True, 0, 0.0, 0.0]</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P395"/>
+  <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2505,10 +2514,10 @@
         <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -2555,10 +2564,10 @@
         <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -2605,10 +2614,10 @@
         <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -2655,10 +2664,10 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P5">
         <v>20</v>
@@ -2705,10 +2714,10 @@
         <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -2755,10 +2764,10 @@
         <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P7">
         <v>20</v>
@@ -2805,10 +2814,10 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O8" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -2855,10 +2864,10 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -2905,10 +2914,10 @@
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P10">
         <v>20</v>
@@ -2955,10 +2964,10 @@
         <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O11" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P11">
         <v>20</v>
@@ -3005,10 +3014,10 @@
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O12" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P12">
         <v>20</v>
@@ -3055,10 +3064,10 @@
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O13" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P13">
         <v>20</v>
@@ -3105,10 +3114,10 @@
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O14" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P14">
         <v>20</v>
@@ -3155,10 +3164,10 @@
         <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O15" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P15">
         <v>20</v>
@@ -3205,10 +3214,10 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O16" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -3255,10 +3264,10 @@
         <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O17" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -3305,10 +3314,10 @@
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O18" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P18">
         <v>20</v>
@@ -3355,10 +3364,10 @@
         <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O19" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P19">
         <v>22</v>
@@ -3405,10 +3414,10 @@
         <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O20" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P20">
         <v>22</v>
@@ -3455,10 +3464,10 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O21" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P21">
         <v>22</v>
@@ -3505,10 +3514,10 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O22" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="P22">
         <v>22</v>
@@ -3555,10 +3564,10 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O23" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="P23">
         <v>22</v>
@@ -3605,10 +3614,10 @@
         <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -3655,10 +3664,10 @@
         <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O25" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -3705,10 +3714,10 @@
         <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P26">
         <v>21</v>
@@ -3755,10 +3764,10 @@
         <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P27">
         <v>21</v>
@@ -3805,10 +3814,10 @@
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="P28">
         <v>22</v>
@@ -3855,10 +3864,10 @@
         <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P29">
         <v>22</v>
@@ -3905,10 +3914,10 @@
         <v>92</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P30">
         <v>22</v>
@@ -3955,10 +3964,10 @@
         <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P31">
         <v>20</v>
@@ -4005,10 +4014,10 @@
         <v>93</v>
       </c>
       <c r="N32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P32">
         <v>22</v>
@@ -4055,10 +4064,10 @@
         <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="P33">
         <v>22</v>
@@ -4105,10 +4114,10 @@
         <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P34">
         <v>27</v>
@@ -4155,10 +4164,10 @@
         <v>95</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O35" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P35">
         <v>22</v>
@@ -4205,10 +4214,10 @@
         <v>96</v>
       </c>
       <c r="N36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P36">
         <v>22</v>
@@ -4255,10 +4264,10 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P37">
         <v>22</v>
@@ -4305,10 +4314,10 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P38">
         <v>22</v>
@@ -4355,10 +4364,10 @@
         <v>96</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P39">
         <v>22</v>
@@ -4405,10 +4414,10 @@
         <v>96</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P40">
         <v>22</v>
@@ -4455,10 +4464,10 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O41" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P41">
         <v>22</v>
@@ -4505,10 +4514,10 @@
         <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P42">
         <v>22</v>
@@ -4555,10 +4564,10 @@
         <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P43">
         <v>22</v>
@@ -4605,10 +4614,10 @@
         <v>97</v>
       </c>
       <c r="N44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P44">
         <v>22</v>
@@ -4655,10 +4664,10 @@
         <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O45" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P45">
         <v>22</v>
@@ -4705,10 +4714,10 @@
         <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O46" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P46">
         <v>22</v>
@@ -4755,10 +4764,10 @@
         <v>99</v>
       </c>
       <c r="N47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O47" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P47">
         <v>27</v>
@@ -4805,10 +4814,10 @@
         <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P48">
         <v>27</v>
@@ -4855,10 +4864,10 @@
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O49" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P49">
         <v>22</v>
@@ -4905,10 +4914,10 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O50" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P50">
         <v>27</v>
@@ -4955,10 +4964,10 @@
         <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O51" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P51">
         <v>27</v>
@@ -5005,10 +5014,10 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P52">
         <v>22</v>
@@ -5055,10 +5064,10 @@
         <v>101</v>
       </c>
       <c r="N53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P53">
         <v>22</v>
@@ -5105,10 +5114,10 @@
         <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O54" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P54">
         <v>27</v>
@@ -5155,10 +5164,10 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O55" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P55">
         <v>27</v>
@@ -5205,10 +5214,10 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O56" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P56">
         <v>22</v>
@@ -5255,10 +5264,10 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O57" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P57">
         <v>22</v>
@@ -5305,10 +5314,10 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O58" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P58">
         <v>22</v>
@@ -5355,10 +5364,10 @@
         <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O59" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P59">
         <v>22</v>
@@ -5405,10 +5414,10 @@
         <v>107</v>
       </c>
       <c r="N60" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O60" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P60">
         <v>27</v>
@@ -5455,10 +5464,10 @@
         <v>108</v>
       </c>
       <c r="N61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O61" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P61">
         <v>27</v>
@@ -5505,10 +5514,10 @@
         <v>109</v>
       </c>
       <c r="N62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O62" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P62">
         <v>22</v>
@@ -5555,10 +5564,10 @@
         <v>110</v>
       </c>
       <c r="N63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O63" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P63">
         <v>22</v>
@@ -5605,10 +5614,10 @@
         <v>111</v>
       </c>
       <c r="N64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O64" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P64">
         <v>22</v>
@@ -5655,10 +5664,10 @@
         <v>112</v>
       </c>
       <c r="N65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O65" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="P65">
         <v>22</v>
@@ -5705,10 +5714,10 @@
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O66" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P66">
         <v>27</v>
@@ -5755,10 +5764,10 @@
         <v>113</v>
       </c>
       <c r="N67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O67" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P67">
         <v>27</v>
@@ -5805,10 +5814,10 @@
         <v>114</v>
       </c>
       <c r="N68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O68" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P68">
         <v>27</v>
@@ -5855,10 +5864,10 @@
         <v>115</v>
       </c>
       <c r="N69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O69" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P69">
         <v>27</v>
@@ -5905,10 +5914,10 @@
         <v>116</v>
       </c>
       <c r="N70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O70" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P70">
         <v>27</v>
@@ -5955,10 +5964,10 @@
         <v>117</v>
       </c>
       <c r="N71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O71" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P71">
         <v>27</v>
@@ -6005,10 +6014,10 @@
         <v>118</v>
       </c>
       <c r="N72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O72" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P72">
         <v>27</v>
@@ -6055,10 +6064,10 @@
         <v>119</v>
       </c>
       <c r="N73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O73" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P73">
         <v>27</v>
@@ -6105,10 +6114,10 @@
         <v>120</v>
       </c>
       <c r="N74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O74" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P74">
         <v>27</v>
@@ -6155,10 +6164,10 @@
         <v>121</v>
       </c>
       <c r="N75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O75" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P75">
         <v>27</v>
@@ -6205,10 +6214,10 @@
         <v>122</v>
       </c>
       <c r="N76" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O76" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P76">
         <v>27</v>
@@ -6255,10 +6264,10 @@
         <v>123</v>
       </c>
       <c r="N77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O77" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P77">
         <v>27</v>
@@ -6305,10 +6314,10 @@
         <v>124</v>
       </c>
       <c r="N78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O78" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P78">
         <v>27</v>
@@ -6355,10 +6364,10 @@
         <v>125</v>
       </c>
       <c r="N79" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O79" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P79">
         <v>27</v>
@@ -6405,10 +6414,10 @@
         <v>126</v>
       </c>
       <c r="N80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O80" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P80">
         <v>27</v>
@@ -6455,10 +6464,10 @@
         <v>127</v>
       </c>
       <c r="N81" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O81" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P81">
         <v>27</v>
@@ -6505,10 +6514,10 @@
         <v>128</v>
       </c>
       <c r="N82" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O82" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P82">
         <v>27</v>
@@ -6555,10 +6564,10 @@
         <v>129</v>
       </c>
       <c r="N83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O83" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P83">
         <v>27</v>
@@ -6605,10 +6614,10 @@
         <v>130</v>
       </c>
       <c r="N84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O84" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P84">
         <v>27</v>
@@ -6655,10 +6664,10 @@
         <v>131</v>
       </c>
       <c r="N85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O85" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P85">
         <v>27</v>
@@ -6705,10 +6714,10 @@
         <v>132</v>
       </c>
       <c r="N86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O86" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P86">
         <v>27</v>
@@ -6755,10 +6764,10 @@
         <v>133</v>
       </c>
       <c r="N87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O87" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P87">
         <v>27</v>
@@ -6805,10 +6814,10 @@
         <v>134</v>
       </c>
       <c r="N88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O88" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P88">
         <v>27</v>
@@ -6855,10 +6864,10 @@
         <v>135</v>
       </c>
       <c r="N89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O89" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P89">
         <v>27</v>
@@ -6905,10 +6914,10 @@
         <v>136</v>
       </c>
       <c r="N90" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O90" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P90">
         <v>27</v>
@@ -6955,10 +6964,10 @@
         <v>137</v>
       </c>
       <c r="N91" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O91" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P91">
         <v>27</v>
@@ -7005,10 +7014,10 @@
         <v>138</v>
       </c>
       <c r="N92" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O92" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P92">
         <v>27</v>
@@ -7055,10 +7064,10 @@
         <v>139</v>
       </c>
       <c r="N93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O93" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P93">
         <v>27</v>
@@ -7105,10 +7114,10 @@
         <v>140</v>
       </c>
       <c r="N94" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O94" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P94">
         <v>27</v>
@@ -7155,10 +7164,10 @@
         <v>141</v>
       </c>
       <c r="N95" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O95" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P95">
         <v>27</v>
@@ -7205,10 +7214,10 @@
         <v>142</v>
       </c>
       <c r="N96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O96" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P96">
         <v>27</v>
@@ -7255,10 +7264,10 @@
         <v>143</v>
       </c>
       <c r="N97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O97" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P97">
         <v>27</v>
@@ -7305,10 +7314,10 @@
         <v>144</v>
       </c>
       <c r="N98" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O98" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P98">
         <v>27</v>
@@ -7355,10 +7364,10 @@
         <v>145</v>
       </c>
       <c r="N99" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O99" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P99">
         <v>27</v>
@@ -7405,10 +7414,10 @@
         <v>146</v>
       </c>
       <c r="N100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O100" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P100">
         <v>27</v>
@@ -7455,10 +7464,10 @@
         <v>147</v>
       </c>
       <c r="N101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O101" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P101">
         <v>27</v>
@@ -7505,10 +7514,10 @@
         <v>148</v>
       </c>
       <c r="N102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O102" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P102">
         <v>27</v>
@@ -7555,10 +7564,10 @@
         <v>149</v>
       </c>
       <c r="N103" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O103" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P103">
         <v>27</v>
@@ -7605,10 +7614,10 @@
         <v>150</v>
       </c>
       <c r="N104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O104" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P104">
         <v>27</v>
@@ -7655,10 +7664,10 @@
         <v>151</v>
       </c>
       <c r="N105" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O105" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P105">
         <v>27</v>
@@ -7705,10 +7714,10 @@
         <v>152</v>
       </c>
       <c r="N106" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O106" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P106">
         <v>27</v>
@@ -7755,10 +7764,10 @@
         <v>153</v>
       </c>
       <c r="N107" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O107" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P107">
         <v>27</v>
@@ -7805,10 +7814,10 @@
         <v>154</v>
       </c>
       <c r="N108" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O108" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P108">
         <v>27</v>
@@ -7855,10 +7864,10 @@
         <v>155</v>
       </c>
       <c r="N109" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O109" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P109">
         <v>27</v>
@@ -7905,10 +7914,10 @@
         <v>156</v>
       </c>
       <c r="N110" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O110" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P110">
         <v>27</v>
@@ -7955,10 +7964,10 @@
         <v>157</v>
       </c>
       <c r="N111" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O111" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P111">
         <v>27</v>
@@ -8005,10 +8014,10 @@
         <v>158</v>
       </c>
       <c r="N112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O112" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P112">
         <v>27</v>
@@ -8055,10 +8064,10 @@
         <v>159</v>
       </c>
       <c r="N113" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O113" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P113">
         <v>27</v>
@@ -8105,10 +8114,10 @@
         <v>160</v>
       </c>
       <c r="N114" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O114" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P114">
         <v>27</v>
@@ -8155,10 +8164,10 @@
         <v>161</v>
       </c>
       <c r="N115" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O115" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P115">
         <v>27</v>
@@ -8205,10 +8214,10 @@
         <v>162</v>
       </c>
       <c r="N116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O116" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P116">
         <v>27</v>
@@ -8255,10 +8264,10 @@
         <v>163</v>
       </c>
       <c r="N117" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O117" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P117">
         <v>27</v>
@@ -8305,10 +8314,10 @@
         <v>164</v>
       </c>
       <c r="N118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O118" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P118">
         <v>27</v>
@@ -8355,10 +8364,10 @@
         <v>165</v>
       </c>
       <c r="N119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O119" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P119">
         <v>27</v>
@@ -8405,10 +8414,10 @@
         <v>166</v>
       </c>
       <c r="N120" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O120" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P120">
         <v>27</v>
@@ -8455,10 +8464,10 @@
         <v>167</v>
       </c>
       <c r="N121" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O121" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P121">
         <v>27</v>
@@ -8505,10 +8514,10 @@
         <v>168</v>
       </c>
       <c r="N122" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O122" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P122">
         <v>27</v>
@@ -8555,10 +8564,10 @@
         <v>169</v>
       </c>
       <c r="N123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O123" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P123">
         <v>27</v>
@@ -8605,10 +8614,10 @@
         <v>170</v>
       </c>
       <c r="N124" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O124" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P124">
         <v>27</v>
@@ -8655,10 +8664,10 @@
         <v>171</v>
       </c>
       <c r="N125" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O125" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P125">
         <v>27</v>
@@ -8705,10 +8714,10 @@
         <v>172</v>
       </c>
       <c r="N126" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O126" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P126">
         <v>27</v>
@@ -8755,10 +8764,10 @@
         <v>173</v>
       </c>
       <c r="N127" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O127" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P127">
         <v>27</v>
@@ -8805,10 +8814,10 @@
         <v>174</v>
       </c>
       <c r="N128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O128" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P128">
         <v>27</v>
@@ -8855,10 +8864,10 @@
         <v>175</v>
       </c>
       <c r="N129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O129" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P129">
         <v>27</v>
@@ -8905,10 +8914,10 @@
         <v>176</v>
       </c>
       <c r="N130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O130" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P130">
         <v>26</v>
@@ -8955,10 +8964,10 @@
         <v>32</v>
       </c>
       <c r="N131" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O131" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P131">
         <v>26</v>
@@ -9005,10 +9014,10 @@
         <v>32</v>
       </c>
       <c r="N132" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O132" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P132">
         <v>26</v>
@@ -9055,10 +9064,10 @@
         <v>177</v>
       </c>
       <c r="N133" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O133" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P133">
         <v>26</v>
@@ -9105,10 +9114,10 @@
         <v>178</v>
       </c>
       <c r="N134" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O134" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P134">
         <v>27</v>
@@ -9155,10 +9164,10 @@
         <v>179</v>
       </c>
       <c r="N135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O135" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P135">
         <v>27</v>
@@ -9205,10 +9214,10 @@
         <v>180</v>
       </c>
       <c r="N136" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O136" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P136">
         <v>26</v>
@@ -9255,10 +9264,10 @@
         <v>32</v>
       </c>
       <c r="N137" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O137" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P137">
         <v>26</v>
@@ -9305,10 +9314,10 @@
         <v>181</v>
       </c>
       <c r="N138" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O138" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P138">
         <v>26</v>
@@ -9355,10 +9364,10 @@
         <v>32</v>
       </c>
       <c r="N139" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O139" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P139">
         <v>27</v>
@@ -9405,10 +9414,10 @@
         <v>116</v>
       </c>
       <c r="N140" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O140" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P140">
         <v>27</v>
@@ -9455,10 +9464,10 @@
         <v>32</v>
       </c>
       <c r="N141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O141" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P141">
         <v>27</v>
@@ -9505,10 +9514,10 @@
         <v>32</v>
       </c>
       <c r="N142" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O142" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P142">
         <v>27</v>
@@ -9555,10 +9564,10 @@
         <v>96</v>
       </c>
       <c r="N143" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O143" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P143">
         <v>27</v>
@@ -9605,10 +9614,10 @@
         <v>114</v>
       </c>
       <c r="N144" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O144" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P144">
         <v>27</v>
@@ -9655,10 +9664,10 @@
         <v>32</v>
       </c>
       <c r="N145" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O145" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P145">
         <v>27</v>
@@ -9705,10 +9714,10 @@
         <v>32</v>
       </c>
       <c r="N146" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O146" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P146">
         <v>27</v>
@@ -9755,10 +9764,10 @@
         <v>96</v>
       </c>
       <c r="N147" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O147" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P147">
         <v>27</v>
@@ -9805,10 +9814,10 @@
         <v>96</v>
       </c>
       <c r="N148" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O148" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P148">
         <v>27</v>
@@ -9855,10 +9864,10 @@
         <v>114</v>
       </c>
       <c r="N149" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O149" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P149">
         <v>27</v>
@@ -9905,10 +9914,10 @@
         <v>182</v>
       </c>
       <c r="N150" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O150" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P150">
         <v>27</v>
@@ -9955,10 +9964,10 @@
         <v>96</v>
       </c>
       <c r="N151" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O151" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P151">
         <v>27</v>
@@ -10005,10 +10014,10 @@
         <v>96</v>
       </c>
       <c r="N152" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O152" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P152">
         <v>27</v>
@@ -10055,10 +10064,10 @@
         <v>32</v>
       </c>
       <c r="N153" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O153" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P153">
         <v>27</v>
@@ -10105,10 +10114,10 @@
         <v>32</v>
       </c>
       <c r="N154" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O154" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P154">
         <v>27</v>
@@ -10155,10 +10164,10 @@
         <v>96</v>
       </c>
       <c r="N155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O155" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P155">
         <v>27</v>
@@ -10205,10 +10214,10 @@
         <v>32</v>
       </c>
       <c r="N156" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O156" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P156">
         <v>27</v>
@@ -10255,10 +10264,10 @@
         <v>183</v>
       </c>
       <c r="N157" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O157" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P157">
         <v>27</v>
@@ -10305,10 +10314,10 @@
         <v>184</v>
       </c>
       <c r="N158" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O158" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P158">
         <v>27</v>
@@ -10355,10 +10364,10 @@
         <v>32</v>
       </c>
       <c r="N159" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O159" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P159">
         <v>22</v>
@@ -10405,10 +10414,10 @@
         <v>32</v>
       </c>
       <c r="N160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O160" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P160">
         <v>22</v>
@@ -10455,10 +10464,10 @@
         <v>32</v>
       </c>
       <c r="N161" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O161" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P161">
         <v>22</v>
@@ -10505,10 +10514,10 @@
         <v>32</v>
       </c>
       <c r="N162" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O162" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P162">
         <v>22</v>
@@ -10555,10 +10564,10 @@
         <v>32</v>
       </c>
       <c r="N163" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O163" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P163">
         <v>22</v>
@@ -10605,10 +10614,10 @@
         <v>32</v>
       </c>
       <c r="N164" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O164" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P164">
         <v>22</v>
@@ -10655,10 +10664,10 @@
         <v>32</v>
       </c>
       <c r="N165" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O165" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P165">
         <v>22</v>
@@ -10705,10 +10714,10 @@
         <v>32</v>
       </c>
       <c r="N166" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O166" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P166">
         <v>22</v>
@@ -10755,10 +10764,10 @@
         <v>32</v>
       </c>
       <c r="N167" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O167" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P167">
         <v>22</v>
@@ -10805,10 +10814,10 @@
         <v>32</v>
       </c>
       <c r="N168" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O168" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P168">
         <v>22</v>
@@ -10855,10 +10864,10 @@
         <v>32</v>
       </c>
       <c r="N169" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O169" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P169">
         <v>23</v>
@@ -10905,10 +10914,10 @@
         <v>32</v>
       </c>
       <c r="N170" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O170" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P170">
         <v>23</v>
@@ -10955,10 +10964,10 @@
         <v>32</v>
       </c>
       <c r="N171" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O171" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P171">
         <v>23</v>
@@ -11005,10 +11014,10 @@
         <v>32</v>
       </c>
       <c r="N172" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O172" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P172">
         <v>23</v>
@@ -11055,10 +11064,10 @@
         <v>32</v>
       </c>
       <c r="N173" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O173" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P173">
         <v>23</v>
@@ -11105,10 +11114,10 @@
         <v>185</v>
       </c>
       <c r="N174" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O174" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P174">
         <v>27</v>
@@ -11155,10 +11164,10 @@
         <v>32</v>
       </c>
       <c r="N175" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O175" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P175">
         <v>27</v>
@@ -11205,10 +11214,10 @@
         <v>96</v>
       </c>
       <c r="N176" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O176" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P176">
         <v>27</v>
@@ -11255,10 +11264,10 @@
         <v>96</v>
       </c>
       <c r="N177" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O177" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P177">
         <v>27</v>
@@ -11305,10 +11314,10 @@
         <v>32</v>
       </c>
       <c r="N178" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O178" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P178">
         <v>27</v>
@@ -11355,10 +11364,10 @@
         <v>32</v>
       </c>
       <c r="N179" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O179" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P179">
         <v>22</v>
@@ -11405,10 +11414,10 @@
         <v>32</v>
       </c>
       <c r="N180" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O180" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P180">
         <v>22</v>
@@ -11455,10 +11464,10 @@
         <v>32</v>
       </c>
       <c r="N181" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O181" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P181">
         <v>22</v>
@@ -11505,10 +11514,10 @@
         <v>32</v>
       </c>
       <c r="N182" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O182" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P182">
         <v>22</v>
@@ -11555,10 +11564,10 @@
         <v>32</v>
       </c>
       <c r="N183" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O183" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P183">
         <v>22</v>
@@ -11605,10 +11614,10 @@
         <v>98</v>
       </c>
       <c r="N184" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O184" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P184">
         <v>21</v>
@@ -11655,10 +11664,10 @@
         <v>93</v>
       </c>
       <c r="N185" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O185" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P185">
         <v>21</v>
@@ -11705,10 +11714,10 @@
         <v>32</v>
       </c>
       <c r="N186" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O186" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P186">
         <v>32</v>
@@ -11755,10 +11764,10 @@
         <v>32</v>
       </c>
       <c r="N187" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O187" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P187">
         <v>32</v>
@@ -11805,10 +11814,10 @@
         <v>32</v>
       </c>
       <c r="N188" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O188" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P188">
         <v>32</v>
@@ -11855,10 +11864,10 @@
         <v>32</v>
       </c>
       <c r="N189" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O189" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P189">
         <v>32</v>
@@ -11905,10 +11914,10 @@
         <v>32</v>
       </c>
       <c r="N190" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O190" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P190">
         <v>32</v>
@@ -11955,10 +11964,10 @@
         <v>32</v>
       </c>
       <c r="N191" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O191" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P191">
         <v>32</v>
@@ -12005,10 +12014,10 @@
         <v>32</v>
       </c>
       <c r="N192" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O192" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P192">
         <v>32</v>
@@ -12055,10 +12064,10 @@
         <v>32</v>
       </c>
       <c r="N193" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O193" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P193">
         <v>32</v>
@@ -12105,10 +12114,10 @@
         <v>32</v>
       </c>
       <c r="N194" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O194" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P194">
         <v>32</v>
@@ -12155,10 +12164,10 @@
         <v>32</v>
       </c>
       <c r="N195" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O195" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P195">
         <v>32</v>
@@ -12205,10 +12214,10 @@
         <v>32</v>
       </c>
       <c r="N196" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O196" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P196">
         <v>32</v>
@@ -12255,10 +12264,10 @@
         <v>32</v>
       </c>
       <c r="N197" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O197" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P197">
         <v>32</v>
@@ -12305,10 +12314,10 @@
         <v>32</v>
       </c>
       <c r="N198" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O198" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P198">
         <v>32</v>
@@ -12355,10 +12364,10 @@
         <v>32</v>
       </c>
       <c r="N199" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O199" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P199">
         <v>32</v>
@@ -12405,10 +12414,10 @@
         <v>32</v>
       </c>
       <c r="N200" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O200" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P200">
         <v>32</v>
@@ -12455,10 +12464,10 @@
         <v>32</v>
       </c>
       <c r="N201" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O201" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P201">
         <v>32</v>
@@ -12505,10 +12514,10 @@
         <v>32</v>
       </c>
       <c r="N202" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O202" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P202">
         <v>32</v>
@@ -12555,10 +12564,10 @@
         <v>32</v>
       </c>
       <c r="N203" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O203" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P203">
         <v>32</v>
@@ -12605,10 +12614,10 @@
         <v>32</v>
       </c>
       <c r="N204" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O204" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P204">
         <v>32</v>
@@ -12655,10 +12664,10 @@
         <v>32</v>
       </c>
       <c r="N205" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O205" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P205">
         <v>32</v>
@@ -12705,10 +12714,10 @@
         <v>32</v>
       </c>
       <c r="N206" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O206" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P206">
         <v>32</v>
@@ -12755,10 +12764,10 @@
         <v>32</v>
       </c>
       <c r="N207" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O207" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P207">
         <v>32</v>
@@ -12805,10 +12814,10 @@
         <v>32</v>
       </c>
       <c r="N208" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O208" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P208">
         <v>32</v>
@@ -12855,10 +12864,10 @@
         <v>32</v>
       </c>
       <c r="N209" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O209" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P209">
         <v>32</v>
@@ -12905,10 +12914,10 @@
         <v>32</v>
       </c>
       <c r="N210" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O210" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P210">
         <v>32</v>
@@ -12955,10 +12964,10 @@
         <v>32</v>
       </c>
       <c r="N211" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O211" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P211">
         <v>32</v>
@@ -13005,10 +13014,10 @@
         <v>32</v>
       </c>
       <c r="N212" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O212" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P212">
         <v>32</v>
@@ -13055,10 +13064,10 @@
         <v>32</v>
       </c>
       <c r="N213" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O213" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P213">
         <v>32</v>
@@ -13105,10 +13114,10 @@
         <v>32</v>
       </c>
       <c r="N214" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O214" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P214">
         <v>32</v>
@@ -13155,10 +13164,10 @@
         <v>32</v>
       </c>
       <c r="N215" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O215" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="P215">
         <v>32</v>
@@ -13205,10 +13214,10 @@
         <v>32</v>
       </c>
       <c r="N216" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O216" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P216">
         <v>32</v>
@@ -13255,10 +13264,10 @@
         <v>32</v>
       </c>
       <c r="N217" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O217" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P217">
         <v>32</v>
@@ -13305,10 +13314,10 @@
         <v>32</v>
       </c>
       <c r="N218" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O218" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P218">
         <v>32</v>
@@ -13355,10 +13364,10 @@
         <v>32</v>
       </c>
       <c r="N219" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O219" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P219">
         <v>32</v>
@@ -13405,10 +13414,10 @@
         <v>32</v>
       </c>
       <c r="N220" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O220" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P220">
         <v>32</v>
@@ -13455,10 +13464,10 @@
         <v>32</v>
       </c>
       <c r="N221" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O221" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P221">
         <v>32</v>
@@ -13505,10 +13514,10 @@
         <v>32</v>
       </c>
       <c r="N222" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O222" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P222">
         <v>32</v>
@@ -13555,10 +13564,10 @@
         <v>32</v>
       </c>
       <c r="N223" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O223" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P223">
         <v>32</v>
@@ -13605,10 +13614,10 @@
         <v>32</v>
       </c>
       <c r="N224" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O224" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P224">
         <v>32</v>
@@ -13655,10 +13664,10 @@
         <v>32</v>
       </c>
       <c r="N225" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O225" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P225">
         <v>32</v>
@@ -13705,10 +13714,10 @@
         <v>32</v>
       </c>
       <c r="N226" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O226" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P226">
         <v>32</v>
@@ -13755,10 +13764,10 @@
         <v>32</v>
       </c>
       <c r="N227" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O227" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P227">
         <v>32</v>
@@ -13805,10 +13814,10 @@
         <v>32</v>
       </c>
       <c r="N228" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O228" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P228">
         <v>32</v>
@@ -13855,10 +13864,10 @@
         <v>32</v>
       </c>
       <c r="N229" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O229" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P229">
         <v>32</v>
@@ -13905,10 +13914,10 @@
         <v>32</v>
       </c>
       <c r="N230" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O230" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P230">
         <v>32</v>
@@ -13955,10 +13964,10 @@
         <v>32</v>
       </c>
       <c r="N231" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O231" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P231">
         <v>32</v>
@@ -14005,10 +14014,10 @@
         <v>32</v>
       </c>
       <c r="N232" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O232" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P232">
         <v>32</v>
@@ -14055,10 +14064,10 @@
         <v>32</v>
       </c>
       <c r="N233" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O233" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P233">
         <v>32</v>
@@ -14105,10 +14114,10 @@
         <v>32</v>
       </c>
       <c r="N234" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O234" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P234">
         <v>32</v>
@@ -14155,10 +14164,10 @@
         <v>32</v>
       </c>
       <c r="N235" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O235" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P235">
         <v>32</v>
@@ -14205,10 +14214,10 @@
         <v>32</v>
       </c>
       <c r="N236" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O236" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P236">
         <v>32</v>
@@ -14255,10 +14264,10 @@
         <v>32</v>
       </c>
       <c r="N237" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O237" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P237">
         <v>32</v>
@@ -14305,10 +14314,10 @@
         <v>32</v>
       </c>
       <c r="N238" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O238" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P238">
         <v>32</v>
@@ -14355,10 +14364,10 @@
         <v>32</v>
       </c>
       <c r="N239" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O239" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P239">
         <v>32</v>
@@ -14405,10 +14414,10 @@
         <v>32</v>
       </c>
       <c r="N240" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O240" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P240">
         <v>32</v>
@@ -14455,10 +14464,10 @@
         <v>32</v>
       </c>
       <c r="N241" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O241" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P241">
         <v>32</v>
@@ -14505,10 +14514,10 @@
         <v>32</v>
       </c>
       <c r="N242" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O242" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P242">
         <v>32</v>
@@ -14555,10 +14564,10 @@
         <v>32</v>
       </c>
       <c r="N243" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O243" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P243">
         <v>32</v>
@@ -14605,10 +14614,10 @@
         <v>32</v>
       </c>
       <c r="N244" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O244" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P244">
         <v>32</v>
@@ -14655,10 +14664,10 @@
         <v>32</v>
       </c>
       <c r="N245" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O245" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P245">
         <v>32</v>
@@ -14705,10 +14714,10 @@
         <v>32</v>
       </c>
       <c r="N246" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O246" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P246">
         <v>33</v>
@@ -14755,10 +14764,10 @@
         <v>32</v>
       </c>
       <c r="N247" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O247" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P247">
         <v>33</v>
@@ -14805,10 +14814,10 @@
         <v>32</v>
       </c>
       <c r="N248" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O248" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P248">
         <v>33</v>
@@ -14855,10 +14864,10 @@
         <v>32</v>
       </c>
       <c r="N249" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O249" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P249">
         <v>33</v>
@@ -14905,10 +14914,10 @@
         <v>32</v>
       </c>
       <c r="N250" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O250" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P250">
         <v>33</v>
@@ -14955,10 +14964,10 @@
         <v>32</v>
       </c>
       <c r="N251" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O251" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P251">
         <v>33</v>
@@ -15005,10 +15014,10 @@
         <v>32</v>
       </c>
       <c r="N252" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O252" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P252">
         <v>33</v>
@@ -15055,10 +15064,10 @@
         <v>32</v>
       </c>
       <c r="N253" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O253" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P253">
         <v>33</v>
@@ -15105,10 +15114,10 @@
         <v>32</v>
       </c>
       <c r="N254" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O254" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P254">
         <v>33</v>
@@ -15155,10 +15164,10 @@
         <v>32</v>
       </c>
       <c r="N255" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O255" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P255">
         <v>33</v>
@@ -15205,10 +15214,10 @@
         <v>32</v>
       </c>
       <c r="N256" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O256" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P256">
         <v>33</v>
@@ -15255,10 +15264,10 @@
         <v>32</v>
       </c>
       <c r="N257" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O257" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P257">
         <v>33</v>
@@ -15305,10 +15314,10 @@
         <v>32</v>
       </c>
       <c r="N258" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O258" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P258">
         <v>33</v>
@@ -15355,10 +15364,10 @@
         <v>32</v>
       </c>
       <c r="N259" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O259" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P259">
         <v>33</v>
@@ -15405,10 +15414,10 @@
         <v>32</v>
       </c>
       <c r="N260" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O260" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P260">
         <v>33</v>
@@ -15455,10 +15464,10 @@
         <v>32</v>
       </c>
       <c r="N261" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O261" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P261">
         <v>33</v>
@@ -15505,10 +15514,10 @@
         <v>32</v>
       </c>
       <c r="N262" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O262" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P262">
         <v>33</v>
@@ -15555,10 +15564,10 @@
         <v>32</v>
       </c>
       <c r="N263" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O263" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P263">
         <v>33</v>
@@ -15605,10 +15614,10 @@
         <v>32</v>
       </c>
       <c r="N264" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O264" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P264">
         <v>33</v>
@@ -15655,10 +15664,10 @@
         <v>32</v>
       </c>
       <c r="N265" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O265" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P265">
         <v>33</v>
@@ -15705,10 +15714,10 @@
         <v>32</v>
       </c>
       <c r="N266" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O266" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P266">
         <v>33</v>
@@ -15755,10 +15764,10 @@
         <v>32</v>
       </c>
       <c r="N267" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O267" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P267">
         <v>33</v>
@@ -15805,10 +15814,10 @@
         <v>32</v>
       </c>
       <c r="N268" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O268" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P268">
         <v>33</v>
@@ -15855,10 +15864,10 @@
         <v>32</v>
       </c>
       <c r="N269" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O269" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P269">
         <v>33</v>
@@ -15905,10 +15914,10 @@
         <v>32</v>
       </c>
       <c r="N270" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O270" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P270">
         <v>33</v>
@@ -15955,10 +15964,10 @@
         <v>32</v>
       </c>
       <c r="N271" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O271" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P271">
         <v>33</v>
@@ -16005,10 +16014,10 @@
         <v>32</v>
       </c>
       <c r="N272" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O272" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P272">
         <v>33</v>
@@ -16055,10 +16064,10 @@
         <v>32</v>
       </c>
       <c r="N273" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O273" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P273">
         <v>33</v>
@@ -16105,10 +16114,10 @@
         <v>32</v>
       </c>
       <c r="N274" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O274" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P274">
         <v>33</v>
@@ -16155,10 +16164,10 @@
         <v>32</v>
       </c>
       <c r="N275" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O275" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P275">
         <v>33</v>
@@ -16205,10 +16214,10 @@
         <v>32</v>
       </c>
       <c r="N276" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O276" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P276">
         <v>34</v>
@@ -16255,10 +16264,10 @@
         <v>32</v>
       </c>
       <c r="N277" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O277" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P277">
         <v>34</v>
@@ -16305,10 +16314,10 @@
         <v>32</v>
       </c>
       <c r="N278" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O278" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P278">
         <v>34</v>
@@ -16355,10 +16364,10 @@
         <v>32</v>
       </c>
       <c r="N279" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O279" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P279">
         <v>34</v>
@@ -16405,10 +16414,10 @@
         <v>32</v>
       </c>
       <c r="N280" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O280" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P280">
         <v>34</v>
@@ -16455,10 +16464,10 @@
         <v>32</v>
       </c>
       <c r="N281" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O281" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P281">
         <v>35</v>
@@ -16505,10 +16514,10 @@
         <v>32</v>
       </c>
       <c r="N282" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O282" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P282">
         <v>35</v>
@@ -16555,10 +16564,10 @@
         <v>186</v>
       </c>
       <c r="N283" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O283" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P283">
         <v>35</v>
@@ -16605,10 +16614,10 @@
         <v>32</v>
       </c>
       <c r="N284" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O284" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P284">
         <v>35</v>
@@ -16655,10 +16664,10 @@
         <v>32</v>
       </c>
       <c r="N285" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O285" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P285">
         <v>35</v>
@@ -16705,10 +16714,10 @@
         <v>32</v>
       </c>
       <c r="N286" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O286" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P286">
         <v>36</v>
@@ -16755,10 +16764,10 @@
         <v>187</v>
       </c>
       <c r="N287" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O287" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P287">
         <v>34</v>
@@ -16805,10 +16814,10 @@
         <v>188</v>
       </c>
       <c r="N288" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O288" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P288">
         <v>34</v>
@@ -16855,10 +16864,10 @@
         <v>32</v>
       </c>
       <c r="N289" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O289" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P289">
         <v>34</v>
@@ -16905,10 +16914,10 @@
         <v>32</v>
       </c>
       <c r="N290" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O290" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P290">
         <v>34</v>
@@ -16955,10 +16964,10 @@
         <v>189</v>
       </c>
       <c r="N291" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O291" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P291">
         <v>34</v>
@@ -17005,10 +17014,10 @@
         <v>32</v>
       </c>
       <c r="N292" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O292" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P292">
         <v>35</v>
@@ -17055,10 +17064,10 @@
         <v>190</v>
       </c>
       <c r="N293" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O293" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P293">
         <v>35</v>
@@ -17105,10 +17114,10 @@
         <v>32</v>
       </c>
       <c r="N294" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O294" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P294">
         <v>35</v>
@@ -17155,10 +17164,10 @@
         <v>32</v>
       </c>
       <c r="N295" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O295" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P295">
         <v>35</v>
@@ -17205,10 +17214,10 @@
         <v>32</v>
       </c>
       <c r="N296" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O296" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P296">
         <v>35</v>
@@ -17255,10 +17264,10 @@
         <v>189</v>
       </c>
       <c r="N297" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O297" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P297">
         <v>36</v>
@@ -17305,10 +17314,10 @@
         <v>32</v>
       </c>
       <c r="N298" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O298" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P298">
         <v>36</v>
@@ -17355,10 +17364,10 @@
         <v>180</v>
       </c>
       <c r="N299" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O299" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P299">
         <v>36</v>
@@ -17405,10 +17414,10 @@
         <v>32</v>
       </c>
       <c r="N300" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O300" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P300">
         <v>36</v>
@@ -17455,10 +17464,10 @@
         <v>189</v>
       </c>
       <c r="N301" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O301" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P301">
         <v>36</v>
@@ -17505,10 +17514,10 @@
         <v>191</v>
       </c>
       <c r="N302" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O302" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P302">
         <v>37</v>
@@ -17555,10 +17564,10 @@
         <v>192</v>
       </c>
       <c r="N303" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O303" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P303">
         <v>37</v>
@@ -17605,10 +17614,10 @@
         <v>193</v>
       </c>
       <c r="N304" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O304" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P304">
         <v>37</v>
@@ -17655,10 +17664,10 @@
         <v>194</v>
       </c>
       <c r="N305" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O305" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P305">
         <v>37</v>
@@ -17705,10 +17714,10 @@
         <v>195</v>
       </c>
       <c r="N306" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O306" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P306">
         <v>37</v>
@@ -17755,10 +17764,10 @@
         <v>196</v>
       </c>
       <c r="N307" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O307" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P307">
         <v>34</v>
@@ -17805,10 +17814,10 @@
         <v>197</v>
       </c>
       <c r="N308" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O308" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P308">
         <v>34</v>
@@ -17855,10 +17864,10 @@
         <v>198</v>
       </c>
       <c r="N309" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O309" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P309">
         <v>34</v>
@@ -17905,10 +17914,10 @@
         <v>32</v>
       </c>
       <c r="N310" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O310" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P310">
         <v>34</v>
@@ -17955,10 +17964,10 @@
         <v>32</v>
       </c>
       <c r="N311" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O311" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P311">
         <v>34</v>
@@ -18005,10 +18014,10 @@
         <v>32</v>
       </c>
       <c r="N312" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O312" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P312">
         <v>35</v>
@@ -18055,10 +18064,10 @@
         <v>32</v>
       </c>
       <c r="N313" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O313" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P313">
         <v>35</v>
@@ -18105,10 +18114,10 @@
         <v>32</v>
       </c>
       <c r="N314" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O314" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P314">
         <v>35</v>
@@ -18155,10 +18164,10 @@
         <v>32</v>
       </c>
       <c r="N315" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O315" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P315">
         <v>35</v>
@@ -18205,10 +18214,10 @@
         <v>199</v>
       </c>
       <c r="N316" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O316" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P316">
         <v>35</v>
@@ -18255,10 +18264,10 @@
         <v>32</v>
       </c>
       <c r="N317" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O317" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P317">
         <v>36</v>
@@ -18305,10 +18314,10 @@
         <v>32</v>
       </c>
       <c r="N318" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O318" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P318">
         <v>36</v>
@@ -18355,10 +18364,10 @@
         <v>170</v>
       </c>
       <c r="N319" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O319" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P319">
         <v>36</v>
@@ -18405,10 +18414,10 @@
         <v>32</v>
       </c>
       <c r="N320" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O320" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P320">
         <v>36</v>
@@ -18455,10 +18464,10 @@
         <v>32</v>
       </c>
       <c r="N321" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O321" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P321">
         <v>36</v>
@@ -18505,10 +18514,10 @@
         <v>32</v>
       </c>
       <c r="N322" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O322" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P322">
         <v>37</v>
@@ -18555,10 +18564,10 @@
         <v>32</v>
       </c>
       <c r="N323" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O323" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P323">
         <v>37</v>
@@ -18605,10 +18614,10 @@
         <v>196</v>
       </c>
       <c r="N324" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O324" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P324">
         <v>37</v>
@@ -18655,10 +18664,10 @@
         <v>32</v>
       </c>
       <c r="N325" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O325" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P325">
         <v>37</v>
@@ -18705,10 +18714,10 @@
         <v>32</v>
       </c>
       <c r="N326" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O326" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P326">
         <v>37</v>
@@ -18755,10 +18764,10 @@
         <v>200</v>
       </c>
       <c r="N327" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O327" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P327">
         <v>33</v>
@@ -18805,10 +18814,10 @@
         <v>201</v>
       </c>
       <c r="N328" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O328" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P328">
         <v>33</v>
@@ -18855,10 +18864,10 @@
         <v>202</v>
       </c>
       <c r="N329" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O329" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P329">
         <v>33</v>
@@ -18905,10 +18914,10 @@
         <v>203</v>
       </c>
       <c r="N330" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O330" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P330">
         <v>33</v>
@@ -18955,10 +18964,10 @@
         <v>204</v>
       </c>
       <c r="N331" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O331" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P331">
         <v>33</v>
@@ -19005,10 +19014,10 @@
         <v>205</v>
       </c>
       <c r="N332" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O332" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P332">
         <v>33</v>
@@ -19055,10 +19064,10 @@
         <v>206</v>
       </c>
       <c r="N333" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O333" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P333">
         <v>33</v>
@@ -19105,10 +19114,10 @@
         <v>207</v>
       </c>
       <c r="N334" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O334" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P334">
         <v>33</v>
@@ -19155,10 +19164,10 @@
         <v>208</v>
       </c>
       <c r="N335" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O335" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P335">
         <v>33</v>
@@ -19205,10 +19214,10 @@
         <v>209</v>
       </c>
       <c r="N336" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O336" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P336">
         <v>33</v>
@@ -19255,10 +19264,10 @@
         <v>210</v>
       </c>
       <c r="N337" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O337" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P337">
         <v>33</v>
@@ -19305,10 +19314,10 @@
         <v>211</v>
       </c>
       <c r="N338" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O338" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P338">
         <v>33</v>
@@ -19355,10 +19364,10 @@
         <v>212</v>
       </c>
       <c r="N339" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O339" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P339">
         <v>33</v>
@@ -19405,10 +19414,10 @@
         <v>213</v>
       </c>
       <c r="N340" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O340" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P340">
         <v>33</v>
@@ -19455,10 +19464,10 @@
         <v>214</v>
       </c>
       <c r="N341" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O341" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P341">
         <v>33</v>
@@ -19505,10 +19514,10 @@
         <v>215</v>
       </c>
       <c r="N342" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O342" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P342">
         <v>22</v>
@@ -19555,10 +19564,10 @@
         <v>216</v>
       </c>
       <c r="N343" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O343" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P343">
         <v>21</v>
@@ -19605,10 +19614,10 @@
         <v>217</v>
       </c>
       <c r="N344" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O344" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P344">
         <v>21</v>
@@ -19655,10 +19664,10 @@
         <v>218</v>
       </c>
       <c r="N345" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O345" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P345">
         <v>21</v>
@@ -19705,10 +19714,10 @@
         <v>219</v>
       </c>
       <c r="N346" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O346" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P346">
         <v>24</v>
@@ -19755,10 +19764,10 @@
         <v>220</v>
       </c>
       <c r="N347" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O347" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P347">
         <v>24</v>
@@ -19805,10 +19814,10 @@
         <v>221</v>
       </c>
       <c r="N348" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O348" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P348">
         <v>24</v>
@@ -19855,10 +19864,10 @@
         <v>222</v>
       </c>
       <c r="N349" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O349" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P349">
         <v>24</v>
@@ -19905,10 +19914,10 @@
         <v>223</v>
       </c>
       <c r="N350" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O350" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P350">
         <v>24</v>
@@ -19955,10 +19964,10 @@
         <v>224</v>
       </c>
       <c r="N351" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O351" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P351">
         <v>24</v>
@@ -20005,10 +20014,10 @@
         <v>225</v>
       </c>
       <c r="N352" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O352" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P352">
         <v>24</v>
@@ -20055,10 +20064,10 @@
         <v>226</v>
       </c>
       <c r="N353" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O353" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P353">
         <v>24</v>
@@ -20105,10 +20114,10 @@
         <v>227</v>
       </c>
       <c r="N354" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O354" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P354">
         <v>24</v>
@@ -20155,10 +20164,10 @@
         <v>228</v>
       </c>
       <c r="N355" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O355" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P355">
         <v>24</v>
@@ -20205,10 +20214,10 @@
         <v>229</v>
       </c>
       <c r="N356" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O356" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P356">
         <v>24</v>
@@ -20255,10 +20264,10 @@
         <v>230</v>
       </c>
       <c r="N357" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O357" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P357">
         <v>24</v>
@@ -20305,10 +20314,10 @@
         <v>231</v>
       </c>
       <c r="N358" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O358" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P358">
         <v>24</v>
@@ -20355,10 +20364,10 @@
         <v>232</v>
       </c>
       <c r="N359" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O359" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P359">
         <v>24</v>
@@ -20405,10 +20414,10 @@
         <v>233</v>
       </c>
       <c r="N360" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O360" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P360">
         <v>24</v>
@@ -20455,10 +20464,10 @@
         <v>234</v>
       </c>
       <c r="N361" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O361" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P361">
         <v>24</v>
@@ -20505,10 +20514,10 @@
         <v>235</v>
       </c>
       <c r="N362" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O362" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P362">
         <v>24</v>
@@ -20555,10 +20564,10 @@
         <v>236</v>
       </c>
       <c r="N363" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O363" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P363">
         <v>24</v>
@@ -20605,10 +20614,10 @@
         <v>237</v>
       </c>
       <c r="N364" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O364" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P364">
         <v>24</v>
@@ -20655,10 +20664,10 @@
         <v>238</v>
       </c>
       <c r="N365" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O365" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P365">
         <v>24</v>
@@ -20705,10 +20714,10 @@
         <v>239</v>
       </c>
       <c r="N366" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O366" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P366">
         <v>24</v>
@@ -20755,10 +20764,10 @@
         <v>240</v>
       </c>
       <c r="N367" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O367" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P367">
         <v>24</v>
@@ -20805,10 +20814,10 @@
         <v>241</v>
       </c>
       <c r="N368" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O368" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P368">
         <v>24</v>
@@ -20855,10 +20864,10 @@
         <v>242</v>
       </c>
       <c r="N369" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O369" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P369">
         <v>24</v>
@@ -20905,10 +20914,10 @@
         <v>243</v>
       </c>
       <c r="N370" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O370" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P370">
         <v>24</v>
@@ -20955,10 +20964,10 @@
         <v>244</v>
       </c>
       <c r="N371" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O371" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P371">
         <v>24</v>
@@ -21005,10 +21014,10 @@
         <v>245</v>
       </c>
       <c r="N372" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O372" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P372">
         <v>24</v>
@@ -21055,10 +21064,10 @@
         <v>246</v>
       </c>
       <c r="N373" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O373" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P373">
         <v>24</v>
@@ -21105,10 +21114,10 @@
         <v>247</v>
       </c>
       <c r="N374" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O374" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P374">
         <v>24</v>
@@ -21155,10 +21164,10 @@
         <v>248</v>
       </c>
       <c r="N375" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O375" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P375">
         <v>24</v>
@@ -21205,10 +21214,10 @@
         <v>32</v>
       </c>
       <c r="N376" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O376" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P376">
         <v>21</v>
@@ -21255,10 +21264,10 @@
         <v>249</v>
       </c>
       <c r="N377" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O377" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P377">
         <v>21</v>
@@ -21305,10 +21314,10 @@
         <v>32</v>
       </c>
       <c r="N378" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O378" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P378">
         <v>21</v>
@@ -21355,10 +21364,10 @@
         <v>250</v>
       </c>
       <c r="N379" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O379" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P379">
         <v>32</v>
@@ -21405,10 +21414,10 @@
         <v>251</v>
       </c>
       <c r="N380" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O380" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P380">
         <v>36</v>
@@ -21455,10 +21464,10 @@
         <v>32</v>
       </c>
       <c r="N381" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O381" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P381">
         <v>38</v>
@@ -21505,10 +21514,10 @@
         <v>32</v>
       </c>
       <c r="N382" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O382" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P382">
         <v>39</v>
@@ -21555,10 +21564,10 @@
         <v>32</v>
       </c>
       <c r="N383" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O383" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="P383">
         <v>40</v>
@@ -21605,10 +21614,10 @@
         <v>32</v>
       </c>
       <c r="N384" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O384" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P384">
         <v>38</v>
@@ -21655,10 +21664,10 @@
         <v>32</v>
       </c>
       <c r="N385" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O385" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P385">
         <v>39</v>
@@ -21705,10 +21714,10 @@
         <v>32</v>
       </c>
       <c r="N386" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O386" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="P386">
         <v>40</v>
@@ -21755,10 +21764,10 @@
         <v>252</v>
       </c>
       <c r="N387" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O387" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P387">
         <v>39</v>
@@ -21805,10 +21814,10 @@
         <v>32</v>
       </c>
       <c r="N388" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O388" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P388">
         <v>33</v>
@@ -21855,10 +21864,10 @@
         <v>253</v>
       </c>
       <c r="N389" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O389" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P389">
         <v>33</v>
@@ -21905,10 +21914,10 @@
         <v>184</v>
       </c>
       <c r="N390" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O390" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P390">
         <v>33</v>
@@ -21955,10 +21964,10 @@
         <v>113</v>
       </c>
       <c r="N391" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O391" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P391">
         <v>33</v>
@@ -22005,10 +22014,10 @@
         <v>32</v>
       </c>
       <c r="N392" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O392" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P392">
         <v>33</v>
@@ -22055,10 +22064,10 @@
         <v>32</v>
       </c>
       <c r="N393" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O393" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P393">
         <v>33</v>
@@ -22105,10 +22114,10 @@
         <v>32</v>
       </c>
       <c r="N394" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O394" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P394">
         <v>33</v>
@@ -22155,13 +22164,63 @@
         <v>32</v>
       </c>
       <c r="N395" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O395" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P395">
         <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>0.9</v>
+      </c>
+      <c r="D396">
+        <v>1242</v>
+      </c>
+      <c r="E396">
+        <v>44</v>
+      </c>
+      <c r="F396">
+        <v>2</v>
+      </c>
+      <c r="G396">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="H396">
+        <v>25</v>
+      </c>
+      <c r="I396">
+        <v>3</v>
+      </c>
+      <c r="J396">
+        <v>1383.466920614243</v>
+      </c>
+      <c r="K396">
+        <v>1.805232558139535</v>
+      </c>
+      <c r="L396" t="s">
+        <v>32</v>
+      </c>
+      <c r="M396" t="s">
+        <v>254</v>
+      </c>
+      <c r="N396" t="s">
+        <v>649</v>
+      </c>
+      <c r="O396" t="s">
+        <v>682</v>
+      </c>
+      <c r="P396">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/chipSolver/data/new.xlsx
+++ b/chipSolver/data/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="707">
   <si>
     <t>netlist</t>
   </si>
@@ -781,6 +781,18 @@
     <t>[((13, 13, 0), (12, 2, 0)), ((8, 15, 0), (4, 5, 0)), ((7, 12, 0), (6, 1, 0)), ((10, 12, 0), (7, 8, 0)), ((4, 12, 0), (7, 8, 0)), ((1, 3, 0), (9, 10, 0)), ((15, 3, 0), (11, 5, 0))]</t>
   </si>
   <si>
+    <t>[((7, 6, 0), (12, 11, 0)), ((9, 10, 0), (14, 2, 0)), ((7, 12, 0), (11, 8, 0)), ((16, 5, 0), (12, 2, 0))]</t>
+  </si>
+  <si>
+    <t>[((11, 5, 0), (4, 5, 0)), ((9, 10, 0), (14, 2, 0)), ((7, 12, 0), (11, 8, 0))]</t>
+  </si>
+  <si>
+    <t>[((9, 10, 0), (14, 2, 0)), ((12, 11, 0), (4, 5, 0))]</t>
+  </si>
+  <si>
+    <t>[((12, 6, 0), (15, 1, 0)), ((9, 10, 0), (14, 2, 0)), ((1, 3, 0), (10, 12, 0)), ((6, 14, 0), (4, 5, 0)), ((10, 12, 0), (7, 8, 0)), ((9, 8, 0), (1, 15, 0)), ((8, 4, 0), (16, 15, 0)), ((10, 12, 0), (6, 15, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=21, tm_hour=15, tm_min=38, tm_sec=37, tm_wday=1, tm_yday=141, tm_isdst=1)</t>
   </si>
   <si>
@@ -1966,6 +1978,51 @@
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=10, tm_min=50, tm_sec=15, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
   </si>
   <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=11, tm_min=42, tm_sec=9, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=11, tm_min=48, tm_sec=57, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=11, tm_min=52, tm_sec=23, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=11, tm_min=56, tm_sec=47, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=1, tm_sec=43, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=6, tm_sec=25, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=19, tm_sec=37, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=19, tm_sec=58, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=21, tm_sec=20, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=26, tm_sec=38, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=26, tm_sec=50, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=12, tm_min=27, tm_sec=48, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=13, tm_min=48, tm_sec=56, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=13, tm_min=52, tm_sec=12, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=13, tm_min=53, tm_sec=54, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 400.0, 10.0, 0.2, 10.0, 0.0, 0.0]</t>
   </si>
   <si>
@@ -2063,6 +2120,21 @@
   </si>
   <si>
     <t>[0.0, 3.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 1.0, 10000.0, 20.0, True, 0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 30.0, 10.0, True, 30, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 3.0, 2.0, 4.0, 3.0, 2.0, 1.0, 1.0, 1.0, 10000.0, 5.0, True, 0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 1000.0, 3.0, True, 30, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 200.0, 10.0, True, 30, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 30.0, 10.0, True, 10, 0.0, 0.0]</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P396"/>
+  <dimension ref="A1:P411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2514,10 +2586,10 @@
         <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O2" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -2564,10 +2636,10 @@
         <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O3" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -2614,10 +2686,10 @@
         <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O4" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -2664,10 +2736,10 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O5" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P5">
         <v>20</v>
@@ -2714,10 +2786,10 @@
         <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O6" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -2764,10 +2836,10 @@
         <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O7" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P7">
         <v>20</v>
@@ -2814,10 +2886,10 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O8" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -2864,10 +2936,10 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O9" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -2914,10 +2986,10 @@
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O10" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P10">
         <v>20</v>
@@ -2964,10 +3036,10 @@
         <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O11" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P11">
         <v>20</v>
@@ -3014,10 +3086,10 @@
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O12" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P12">
         <v>20</v>
@@ -3064,10 +3136,10 @@
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O13" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P13">
         <v>20</v>
@@ -3114,10 +3186,10 @@
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O14" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P14">
         <v>20</v>
@@ -3164,10 +3236,10 @@
         <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O15" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P15">
         <v>20</v>
@@ -3214,10 +3286,10 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O16" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -3264,10 +3336,10 @@
         <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O17" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -3314,10 +3386,10 @@
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O18" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P18">
         <v>20</v>
@@ -3364,10 +3436,10 @@
         <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O19" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P19">
         <v>22</v>
@@ -3414,10 +3486,10 @@
         <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O20" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P20">
         <v>22</v>
@@ -3464,10 +3536,10 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O21" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P21">
         <v>22</v>
@@ -3514,10 +3586,10 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O22" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="P22">
         <v>22</v>
@@ -3564,10 +3636,10 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O23" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="P23">
         <v>22</v>
@@ -3614,10 +3686,10 @@
         <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -3664,10 +3736,10 @@
         <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -3714,10 +3786,10 @@
         <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="P26">
         <v>21</v>
@@ -3764,10 +3836,10 @@
         <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="P27">
         <v>21</v>
@@ -3814,10 +3886,10 @@
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O28" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="P28">
         <v>22</v>
@@ -3864,10 +3936,10 @@
         <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P29">
         <v>22</v>
@@ -3914,10 +3986,10 @@
         <v>92</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P30">
         <v>22</v>
@@ -3964,10 +4036,10 @@
         <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P31">
         <v>20</v>
@@ -4014,10 +4086,10 @@
         <v>93</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P32">
         <v>22</v>
@@ -4064,10 +4136,10 @@
         <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O33" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="P33">
         <v>22</v>
@@ -4114,10 +4186,10 @@
         <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P34">
         <v>27</v>
@@ -4164,10 +4236,10 @@
         <v>95</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O35" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P35">
         <v>22</v>
@@ -4214,10 +4286,10 @@
         <v>96</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="P36">
         <v>22</v>
@@ -4264,10 +4336,10 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P37">
         <v>22</v>
@@ -4314,10 +4386,10 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P38">
         <v>22</v>
@@ -4364,10 +4436,10 @@
         <v>96</v>
       </c>
       <c r="N39" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P39">
         <v>22</v>
@@ -4414,10 +4486,10 @@
         <v>96</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O40" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P40">
         <v>22</v>
@@ -4464,10 +4536,10 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P41">
         <v>22</v>
@@ -4514,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P42">
         <v>22</v>
@@ -4564,10 +4636,10 @@
         <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P43">
         <v>22</v>
@@ -4614,10 +4686,10 @@
         <v>97</v>
       </c>
       <c r="N44" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P44">
         <v>22</v>
@@ -4664,10 +4736,10 @@
         <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O45" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="P45">
         <v>22</v>
@@ -4714,10 +4786,10 @@
         <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="P46">
         <v>22</v>
@@ -4764,10 +4836,10 @@
         <v>99</v>
       </c>
       <c r="N47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O47" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P47">
         <v>27</v>
@@ -4814,10 +4886,10 @@
         <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O48" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P48">
         <v>27</v>
@@ -4864,10 +4936,10 @@
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O49" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P49">
         <v>22</v>
@@ -4914,10 +4986,10 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P50">
         <v>27</v>
@@ -4964,10 +5036,10 @@
         <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P51">
         <v>27</v>
@@ -5014,10 +5086,10 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O52" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="P52">
         <v>22</v>
@@ -5064,10 +5136,10 @@
         <v>101</v>
       </c>
       <c r="N53" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="P53">
         <v>22</v>
@@ -5114,10 +5186,10 @@
         <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P54">
         <v>27</v>
@@ -5164,10 +5236,10 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O55" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P55">
         <v>27</v>
@@ -5214,10 +5286,10 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O56" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="P56">
         <v>22</v>
@@ -5264,10 +5336,10 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P57">
         <v>22</v>
@@ -5314,10 +5386,10 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O58" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P58">
         <v>22</v>
@@ -5364,10 +5436,10 @@
         <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O59" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P59">
         <v>22</v>
@@ -5414,10 +5486,10 @@
         <v>107</v>
       </c>
       <c r="N60" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O60" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P60">
         <v>27</v>
@@ -5464,10 +5536,10 @@
         <v>108</v>
       </c>
       <c r="N61" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O61" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P61">
         <v>27</v>
@@ -5514,10 +5586,10 @@
         <v>109</v>
       </c>
       <c r="N62" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O62" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P62">
         <v>22</v>
@@ -5564,10 +5636,10 @@
         <v>110</v>
       </c>
       <c r="N63" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="O63" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P63">
         <v>22</v>
@@ -5614,10 +5686,10 @@
         <v>111</v>
       </c>
       <c r="N64" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O64" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P64">
         <v>22</v>
@@ -5664,10 +5736,10 @@
         <v>112</v>
       </c>
       <c r="N65" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O65" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="P65">
         <v>22</v>
@@ -5714,10 +5786,10 @@
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O66" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P66">
         <v>27</v>
@@ -5764,10 +5836,10 @@
         <v>113</v>
       </c>
       <c r="N67" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O67" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P67">
         <v>27</v>
@@ -5814,10 +5886,10 @@
         <v>114</v>
       </c>
       <c r="N68" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O68" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P68">
         <v>27</v>
@@ -5864,10 +5936,10 @@
         <v>115</v>
       </c>
       <c r="N69" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O69" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P69">
         <v>27</v>
@@ -5914,10 +5986,10 @@
         <v>116</v>
       </c>
       <c r="N70" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O70" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P70">
         <v>27</v>
@@ -5964,10 +6036,10 @@
         <v>117</v>
       </c>
       <c r="N71" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O71" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="P71">
         <v>27</v>
@@ -6014,10 +6086,10 @@
         <v>118</v>
       </c>
       <c r="N72" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O72" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P72">
         <v>27</v>
@@ -6064,10 +6136,10 @@
         <v>119</v>
       </c>
       <c r="N73" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O73" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P73">
         <v>27</v>
@@ -6114,10 +6186,10 @@
         <v>120</v>
       </c>
       <c r="N74" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O74" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P74">
         <v>27</v>
@@ -6164,10 +6236,10 @@
         <v>121</v>
       </c>
       <c r="N75" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O75" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P75">
         <v>27</v>
@@ -6214,10 +6286,10 @@
         <v>122</v>
       </c>
       <c r="N76" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O76" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P76">
         <v>27</v>
@@ -6264,10 +6336,10 @@
         <v>123</v>
       </c>
       <c r="N77" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="O77" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P77">
         <v>27</v>
@@ -6314,10 +6386,10 @@
         <v>124</v>
       </c>
       <c r="N78" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O78" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P78">
         <v>27</v>
@@ -6364,10 +6436,10 @@
         <v>125</v>
       </c>
       <c r="N79" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O79" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P79">
         <v>27</v>
@@ -6414,10 +6486,10 @@
         <v>126</v>
       </c>
       <c r="N80" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O80" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P80">
         <v>27</v>
@@ -6464,10 +6536,10 @@
         <v>127</v>
       </c>
       <c r="N81" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O81" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P81">
         <v>27</v>
@@ -6514,10 +6586,10 @@
         <v>128</v>
       </c>
       <c r="N82" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O82" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P82">
         <v>27</v>
@@ -6564,10 +6636,10 @@
         <v>129</v>
       </c>
       <c r="N83" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O83" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P83">
         <v>27</v>
@@ -6614,10 +6686,10 @@
         <v>130</v>
       </c>
       <c r="N84" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O84" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P84">
         <v>27</v>
@@ -6664,10 +6736,10 @@
         <v>131</v>
       </c>
       <c r="N85" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O85" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P85">
         <v>27</v>
@@ -6714,10 +6786,10 @@
         <v>132</v>
       </c>
       <c r="N86" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O86" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P86">
         <v>27</v>
@@ -6764,10 +6836,10 @@
         <v>133</v>
       </c>
       <c r="N87" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O87" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P87">
         <v>27</v>
@@ -6814,10 +6886,10 @@
         <v>134</v>
       </c>
       <c r="N88" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O88" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P88">
         <v>27</v>
@@ -6864,10 +6936,10 @@
         <v>135</v>
       </c>
       <c r="N89" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O89" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P89">
         <v>27</v>
@@ -6914,10 +6986,10 @@
         <v>136</v>
       </c>
       <c r="N90" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O90" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P90">
         <v>27</v>
@@ -6964,10 +7036,10 @@
         <v>137</v>
       </c>
       <c r="N91" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O91" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P91">
         <v>27</v>
@@ -7014,10 +7086,10 @@
         <v>138</v>
       </c>
       <c r="N92" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O92" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P92">
         <v>27</v>
@@ -7064,10 +7136,10 @@
         <v>139</v>
       </c>
       <c r="N93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O93" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P93">
         <v>27</v>
@@ -7114,10 +7186,10 @@
         <v>140</v>
       </c>
       <c r="N94" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O94" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P94">
         <v>27</v>
@@ -7164,10 +7236,10 @@
         <v>141</v>
       </c>
       <c r="N95" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O95" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P95">
         <v>27</v>
@@ -7214,10 +7286,10 @@
         <v>142</v>
       </c>
       <c r="N96" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O96" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P96">
         <v>27</v>
@@ -7264,10 +7336,10 @@
         <v>143</v>
       </c>
       <c r="N97" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O97" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P97">
         <v>27</v>
@@ -7314,10 +7386,10 @@
         <v>144</v>
       </c>
       <c r="N98" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O98" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P98">
         <v>27</v>
@@ -7364,10 +7436,10 @@
         <v>145</v>
       </c>
       <c r="N99" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O99" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P99">
         <v>27</v>
@@ -7414,10 +7486,10 @@
         <v>146</v>
       </c>
       <c r="N100" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O100" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P100">
         <v>27</v>
@@ -7464,10 +7536,10 @@
         <v>147</v>
       </c>
       <c r="N101" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O101" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P101">
         <v>27</v>
@@ -7514,10 +7586,10 @@
         <v>148</v>
       </c>
       <c r="N102" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O102" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P102">
         <v>27</v>
@@ -7564,10 +7636,10 @@
         <v>149</v>
       </c>
       <c r="N103" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O103" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P103">
         <v>27</v>
@@ -7614,10 +7686,10 @@
         <v>150</v>
       </c>
       <c r="N104" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O104" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P104">
         <v>27</v>
@@ -7664,10 +7736,10 @@
         <v>151</v>
       </c>
       <c r="N105" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O105" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P105">
         <v>27</v>
@@ -7714,10 +7786,10 @@
         <v>152</v>
       </c>
       <c r="N106" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O106" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P106">
         <v>27</v>
@@ -7764,10 +7836,10 @@
         <v>153</v>
       </c>
       <c r="N107" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O107" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P107">
         <v>27</v>
@@ -7814,10 +7886,10 @@
         <v>154</v>
       </c>
       <c r="N108" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="O108" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P108">
         <v>27</v>
@@ -7864,10 +7936,10 @@
         <v>155</v>
       </c>
       <c r="N109" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O109" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P109">
         <v>27</v>
@@ -7914,10 +7986,10 @@
         <v>156</v>
       </c>
       <c r="N110" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O110" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P110">
         <v>27</v>
@@ -7964,10 +8036,10 @@
         <v>157</v>
       </c>
       <c r="N111" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="O111" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P111">
         <v>27</v>
@@ -8014,10 +8086,10 @@
         <v>158</v>
       </c>
       <c r="N112" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O112" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P112">
         <v>27</v>
@@ -8064,10 +8136,10 @@
         <v>159</v>
       </c>
       <c r="N113" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O113" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P113">
         <v>27</v>
@@ -8114,10 +8186,10 @@
         <v>160</v>
       </c>
       <c r="N114" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O114" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P114">
         <v>27</v>
@@ -8164,10 +8236,10 @@
         <v>161</v>
       </c>
       <c r="N115" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="O115" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P115">
         <v>27</v>
@@ -8214,10 +8286,10 @@
         <v>162</v>
       </c>
       <c r="N116" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O116" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P116">
         <v>27</v>
@@ -8264,10 +8336,10 @@
         <v>163</v>
       </c>
       <c r="N117" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="O117" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P117">
         <v>27</v>
@@ -8314,10 +8386,10 @@
         <v>164</v>
       </c>
       <c r="N118" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O118" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P118">
         <v>27</v>
@@ -8364,10 +8436,10 @@
         <v>165</v>
       </c>
       <c r="N119" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O119" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P119">
         <v>27</v>
@@ -8414,10 +8486,10 @@
         <v>166</v>
       </c>
       <c r="N120" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O120" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P120">
         <v>27</v>
@@ -8464,10 +8536,10 @@
         <v>167</v>
       </c>
       <c r="N121" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O121" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P121">
         <v>27</v>
@@ -8514,10 +8586,10 @@
         <v>168</v>
       </c>
       <c r="N122" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O122" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P122">
         <v>27</v>
@@ -8564,10 +8636,10 @@
         <v>169</v>
       </c>
       <c r="N123" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O123" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P123">
         <v>27</v>
@@ -8614,10 +8686,10 @@
         <v>170</v>
       </c>
       <c r="N124" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O124" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P124">
         <v>27</v>
@@ -8664,10 +8736,10 @@
         <v>171</v>
       </c>
       <c r="N125" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O125" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P125">
         <v>27</v>
@@ -8714,10 +8786,10 @@
         <v>172</v>
       </c>
       <c r="N126" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O126" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P126">
         <v>27</v>
@@ -8764,10 +8836,10 @@
         <v>173</v>
       </c>
       <c r="N127" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O127" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P127">
         <v>27</v>
@@ -8814,10 +8886,10 @@
         <v>174</v>
       </c>
       <c r="N128" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O128" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P128">
         <v>27</v>
@@ -8864,10 +8936,10 @@
         <v>175</v>
       </c>
       <c r="N129" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O129" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P129">
         <v>27</v>
@@ -8914,10 +8986,10 @@
         <v>176</v>
       </c>
       <c r="N130" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O130" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P130">
         <v>26</v>
@@ -8964,10 +9036,10 @@
         <v>32</v>
       </c>
       <c r="N131" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="O131" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P131">
         <v>26</v>
@@ -9014,10 +9086,10 @@
         <v>32</v>
       </c>
       <c r="N132" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O132" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P132">
         <v>26</v>
@@ -9064,10 +9136,10 @@
         <v>177</v>
       </c>
       <c r="N133" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O133" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P133">
         <v>26</v>
@@ -9114,10 +9186,10 @@
         <v>178</v>
       </c>
       <c r="N134" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O134" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P134">
         <v>27</v>
@@ -9164,10 +9236,10 @@
         <v>179</v>
       </c>
       <c r="N135" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O135" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P135">
         <v>27</v>
@@ -9214,10 +9286,10 @@
         <v>180</v>
       </c>
       <c r="N136" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O136" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P136">
         <v>26</v>
@@ -9264,10 +9336,10 @@
         <v>32</v>
       </c>
       <c r="N137" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O137" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P137">
         <v>26</v>
@@ -9314,10 +9386,10 @@
         <v>181</v>
       </c>
       <c r="N138" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O138" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="P138">
         <v>26</v>
@@ -9364,10 +9436,10 @@
         <v>32</v>
       </c>
       <c r="N139" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O139" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P139">
         <v>27</v>
@@ -9414,10 +9486,10 @@
         <v>116</v>
       </c>
       <c r="N140" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O140" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P140">
         <v>27</v>
@@ -9464,10 +9536,10 @@
         <v>32</v>
       </c>
       <c r="N141" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O141" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P141">
         <v>27</v>
@@ -9514,10 +9586,10 @@
         <v>32</v>
       </c>
       <c r="N142" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O142" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P142">
         <v>27</v>
@@ -9564,10 +9636,10 @@
         <v>96</v>
       </c>
       <c r="N143" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O143" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P143">
         <v>27</v>
@@ -9614,10 +9686,10 @@
         <v>114</v>
       </c>
       <c r="N144" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O144" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P144">
         <v>27</v>
@@ -9664,10 +9736,10 @@
         <v>32</v>
       </c>
       <c r="N145" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O145" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P145">
         <v>27</v>
@@ -9714,10 +9786,10 @@
         <v>32</v>
       </c>
       <c r="N146" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O146" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P146">
         <v>27</v>
@@ -9764,10 +9836,10 @@
         <v>96</v>
       </c>
       <c r="N147" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O147" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P147">
         <v>27</v>
@@ -9814,10 +9886,10 @@
         <v>96</v>
       </c>
       <c r="N148" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O148" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P148">
         <v>27</v>
@@ -9864,10 +9936,10 @@
         <v>114</v>
       </c>
       <c r="N149" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O149" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P149">
         <v>27</v>
@@ -9914,10 +9986,10 @@
         <v>182</v>
       </c>
       <c r="N150" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O150" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P150">
         <v>27</v>
@@ -9964,10 +10036,10 @@
         <v>96</v>
       </c>
       <c r="N151" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O151" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P151">
         <v>27</v>
@@ -10014,10 +10086,10 @@
         <v>96</v>
       </c>
       <c r="N152" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O152" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P152">
         <v>27</v>
@@ -10064,10 +10136,10 @@
         <v>32</v>
       </c>
       <c r="N153" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O153" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P153">
         <v>27</v>
@@ -10114,10 +10186,10 @@
         <v>32</v>
       </c>
       <c r="N154" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O154" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P154">
         <v>27</v>
@@ -10164,10 +10236,10 @@
         <v>96</v>
       </c>
       <c r="N155" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O155" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P155">
         <v>27</v>
@@ -10214,10 +10286,10 @@
         <v>32</v>
       </c>
       <c r="N156" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O156" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P156">
         <v>27</v>
@@ -10264,10 +10336,10 @@
         <v>183</v>
       </c>
       <c r="N157" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O157" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P157">
         <v>27</v>
@@ -10314,10 +10386,10 @@
         <v>184</v>
       </c>
       <c r="N158" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O158" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P158">
         <v>27</v>
@@ -10364,10 +10436,10 @@
         <v>32</v>
       </c>
       <c r="N159" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O159" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P159">
         <v>22</v>
@@ -10414,10 +10486,10 @@
         <v>32</v>
       </c>
       <c r="N160" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O160" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P160">
         <v>22</v>
@@ -10464,10 +10536,10 @@
         <v>32</v>
       </c>
       <c r="N161" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O161" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P161">
         <v>22</v>
@@ -10514,10 +10586,10 @@
         <v>32</v>
       </c>
       <c r="N162" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="O162" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P162">
         <v>22</v>
@@ -10564,10 +10636,10 @@
         <v>32</v>
       </c>
       <c r="N163" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O163" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P163">
         <v>22</v>
@@ -10614,10 +10686,10 @@
         <v>32</v>
       </c>
       <c r="N164" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O164" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P164">
         <v>22</v>
@@ -10664,10 +10736,10 @@
         <v>32</v>
       </c>
       <c r="N165" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O165" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P165">
         <v>22</v>
@@ -10714,10 +10786,10 @@
         <v>32</v>
       </c>
       <c r="N166" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O166" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P166">
         <v>22</v>
@@ -10764,10 +10836,10 @@
         <v>32</v>
       </c>
       <c r="N167" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O167" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P167">
         <v>22</v>
@@ -10814,10 +10886,10 @@
         <v>32</v>
       </c>
       <c r="N168" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O168" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P168">
         <v>22</v>
@@ -10864,10 +10936,10 @@
         <v>32</v>
       </c>
       <c r="N169" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O169" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="P169">
         <v>23</v>
@@ -10914,10 +10986,10 @@
         <v>32</v>
       </c>
       <c r="N170" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O170" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="P170">
         <v>23</v>
@@ -10964,10 +11036,10 @@
         <v>32</v>
       </c>
       <c r="N171" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O171" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="P171">
         <v>23</v>
@@ -11014,10 +11086,10 @@
         <v>32</v>
       </c>
       <c r="N172" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O172" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="P172">
         <v>23</v>
@@ -11064,10 +11136,10 @@
         <v>32</v>
       </c>
       <c r="N173" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O173" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="P173">
         <v>23</v>
@@ -11114,10 +11186,10 @@
         <v>185</v>
       </c>
       <c r="N174" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O174" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P174">
         <v>27</v>
@@ -11164,10 +11236,10 @@
         <v>32</v>
       </c>
       <c r="N175" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O175" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P175">
         <v>27</v>
@@ -11214,10 +11286,10 @@
         <v>96</v>
       </c>
       <c r="N176" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O176" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P176">
         <v>27</v>
@@ -11264,10 +11336,10 @@
         <v>96</v>
       </c>
       <c r="N177" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O177" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P177">
         <v>27</v>
@@ -11314,10 +11386,10 @@
         <v>32</v>
       </c>
       <c r="N178" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O178" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P178">
         <v>27</v>
@@ -11364,10 +11436,10 @@
         <v>32</v>
       </c>
       <c r="N179" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O179" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P179">
         <v>22</v>
@@ -11414,10 +11486,10 @@
         <v>32</v>
       </c>
       <c r="N180" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O180" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P180">
         <v>22</v>
@@ -11464,10 +11536,10 @@
         <v>32</v>
       </c>
       <c r="N181" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O181" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P181">
         <v>22</v>
@@ -11514,10 +11586,10 @@
         <v>32</v>
       </c>
       <c r="N182" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O182" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P182">
         <v>22</v>
@@ -11564,10 +11636,10 @@
         <v>32</v>
       </c>
       <c r="N183" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O183" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="P183">
         <v>22</v>
@@ -11614,10 +11686,10 @@
         <v>98</v>
       </c>
       <c r="N184" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="O184" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P184">
         <v>21</v>
@@ -11664,10 +11736,10 @@
         <v>93</v>
       </c>
       <c r="N185" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O185" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P185">
         <v>21</v>
@@ -11714,10 +11786,10 @@
         <v>32</v>
       </c>
       <c r="N186" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O186" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P186">
         <v>32</v>
@@ -11764,10 +11836,10 @@
         <v>32</v>
       </c>
       <c r="N187" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O187" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P187">
         <v>32</v>
@@ -11814,10 +11886,10 @@
         <v>32</v>
       </c>
       <c r="N188" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O188" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P188">
         <v>32</v>
@@ -11864,10 +11936,10 @@
         <v>32</v>
       </c>
       <c r="N189" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O189" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P189">
         <v>32</v>
@@ -11914,10 +11986,10 @@
         <v>32</v>
       </c>
       <c r="N190" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O190" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P190">
         <v>32</v>
@@ -11964,10 +12036,10 @@
         <v>32</v>
       </c>
       <c r="N191" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O191" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P191">
         <v>32</v>
@@ -12014,10 +12086,10 @@
         <v>32</v>
       </c>
       <c r="N192" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O192" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P192">
         <v>32</v>
@@ -12064,10 +12136,10 @@
         <v>32</v>
       </c>
       <c r="N193" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O193" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P193">
         <v>32</v>
@@ -12114,10 +12186,10 @@
         <v>32</v>
       </c>
       <c r="N194" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O194" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P194">
         <v>32</v>
@@ -12164,10 +12236,10 @@
         <v>32</v>
       </c>
       <c r="N195" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O195" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P195">
         <v>32</v>
@@ -12214,10 +12286,10 @@
         <v>32</v>
       </c>
       <c r="N196" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O196" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P196">
         <v>32</v>
@@ -12264,10 +12336,10 @@
         <v>32</v>
       </c>
       <c r="N197" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O197" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P197">
         <v>32</v>
@@ -12314,10 +12386,10 @@
         <v>32</v>
       </c>
       <c r="N198" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O198" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P198">
         <v>32</v>
@@ -12364,10 +12436,10 @@
         <v>32</v>
       </c>
       <c r="N199" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O199" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P199">
         <v>32</v>
@@ -12414,10 +12486,10 @@
         <v>32</v>
       </c>
       <c r="N200" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O200" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P200">
         <v>32</v>
@@ -12464,10 +12536,10 @@
         <v>32</v>
       </c>
       <c r="N201" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O201" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P201">
         <v>32</v>
@@ -12514,10 +12586,10 @@
         <v>32</v>
       </c>
       <c r="N202" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O202" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P202">
         <v>32</v>
@@ -12564,10 +12636,10 @@
         <v>32</v>
       </c>
       <c r="N203" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O203" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P203">
         <v>32</v>
@@ -12614,10 +12686,10 @@
         <v>32</v>
       </c>
       <c r="N204" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O204" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P204">
         <v>32</v>
@@ -12664,10 +12736,10 @@
         <v>32</v>
       </c>
       <c r="N205" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O205" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P205">
         <v>32</v>
@@ -12714,10 +12786,10 @@
         <v>32</v>
       </c>
       <c r="N206" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O206" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P206">
         <v>32</v>
@@ -12764,10 +12836,10 @@
         <v>32</v>
       </c>
       <c r="N207" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="O207" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P207">
         <v>32</v>
@@ -12814,10 +12886,10 @@
         <v>32</v>
       </c>
       <c r="N208" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O208" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P208">
         <v>32</v>
@@ -12864,10 +12936,10 @@
         <v>32</v>
       </c>
       <c r="N209" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O209" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P209">
         <v>32</v>
@@ -12914,10 +12986,10 @@
         <v>32</v>
       </c>
       <c r="N210" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O210" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P210">
         <v>32</v>
@@ -12964,10 +13036,10 @@
         <v>32</v>
       </c>
       <c r="N211" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O211" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P211">
         <v>32</v>
@@ -13014,10 +13086,10 @@
         <v>32</v>
       </c>
       <c r="N212" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O212" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P212">
         <v>32</v>
@@ -13064,10 +13136,10 @@
         <v>32</v>
       </c>
       <c r="N213" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O213" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P213">
         <v>32</v>
@@ -13114,10 +13186,10 @@
         <v>32</v>
       </c>
       <c r="N214" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="O214" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P214">
         <v>32</v>
@@ -13164,10 +13236,10 @@
         <v>32</v>
       </c>
       <c r="N215" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O215" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="P215">
         <v>32</v>
@@ -13214,10 +13286,10 @@
         <v>32</v>
       </c>
       <c r="N216" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O216" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P216">
         <v>32</v>
@@ -13264,10 +13336,10 @@
         <v>32</v>
       </c>
       <c r="N217" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O217" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P217">
         <v>32</v>
@@ -13314,10 +13386,10 @@
         <v>32</v>
       </c>
       <c r="N218" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O218" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P218">
         <v>32</v>
@@ -13364,10 +13436,10 @@
         <v>32</v>
       </c>
       <c r="N219" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O219" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P219">
         <v>32</v>
@@ -13414,10 +13486,10 @@
         <v>32</v>
       </c>
       <c r="N220" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="O220" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P220">
         <v>32</v>
@@ -13464,10 +13536,10 @@
         <v>32</v>
       </c>
       <c r="N221" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O221" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P221">
         <v>32</v>
@@ -13514,10 +13586,10 @@
         <v>32</v>
       </c>
       <c r="N222" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O222" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P222">
         <v>32</v>
@@ -13564,10 +13636,10 @@
         <v>32</v>
       </c>
       <c r="N223" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O223" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P223">
         <v>32</v>
@@ -13614,10 +13686,10 @@
         <v>32</v>
       </c>
       <c r="N224" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="O224" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P224">
         <v>32</v>
@@ -13664,10 +13736,10 @@
         <v>32</v>
       </c>
       <c r="N225" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="O225" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P225">
         <v>32</v>
@@ -13714,10 +13786,10 @@
         <v>32</v>
       </c>
       <c r="N226" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="O226" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P226">
         <v>32</v>
@@ -13764,10 +13836,10 @@
         <v>32</v>
       </c>
       <c r="N227" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O227" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P227">
         <v>32</v>
@@ -13814,10 +13886,10 @@
         <v>32</v>
       </c>
       <c r="N228" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O228" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P228">
         <v>32</v>
@@ -13864,10 +13936,10 @@
         <v>32</v>
       </c>
       <c r="N229" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="O229" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P229">
         <v>32</v>
@@ -13914,10 +13986,10 @@
         <v>32</v>
       </c>
       <c r="N230" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="O230" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P230">
         <v>32</v>
@@ -13964,10 +14036,10 @@
         <v>32</v>
       </c>
       <c r="N231" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="O231" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P231">
         <v>32</v>
@@ -14014,10 +14086,10 @@
         <v>32</v>
       </c>
       <c r="N232" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="O232" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P232">
         <v>32</v>
@@ -14064,10 +14136,10 @@
         <v>32</v>
       </c>
       <c r="N233" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O233" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P233">
         <v>32</v>
@@ -14114,10 +14186,10 @@
         <v>32</v>
       </c>
       <c r="N234" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="O234" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P234">
         <v>32</v>
@@ -14164,10 +14236,10 @@
         <v>32</v>
       </c>
       <c r="N235" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O235" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P235">
         <v>32</v>
@@ -14214,10 +14286,10 @@
         <v>32</v>
       </c>
       <c r="N236" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="O236" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P236">
         <v>32</v>
@@ -14264,10 +14336,10 @@
         <v>32</v>
       </c>
       <c r="N237" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O237" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P237">
         <v>32</v>
@@ -14314,10 +14386,10 @@
         <v>32</v>
       </c>
       <c r="N238" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="O238" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P238">
         <v>32</v>
@@ -14364,10 +14436,10 @@
         <v>32</v>
       </c>
       <c r="N239" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="O239" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P239">
         <v>32</v>
@@ -14414,10 +14486,10 @@
         <v>32</v>
       </c>
       <c r="N240" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="O240" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P240">
         <v>32</v>
@@ -14464,10 +14536,10 @@
         <v>32</v>
       </c>
       <c r="N241" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O241" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P241">
         <v>32</v>
@@ -14514,10 +14586,10 @@
         <v>32</v>
       </c>
       <c r="N242" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O242" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P242">
         <v>32</v>
@@ -14564,10 +14636,10 @@
         <v>32</v>
       </c>
       <c r="N243" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O243" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P243">
         <v>32</v>
@@ -14614,10 +14686,10 @@
         <v>32</v>
       </c>
       <c r="N244" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="O244" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P244">
         <v>32</v>
@@ -14664,10 +14736,10 @@
         <v>32</v>
       </c>
       <c r="N245" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="O245" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P245">
         <v>32</v>
@@ -14714,10 +14786,10 @@
         <v>32</v>
       </c>
       <c r="N246" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="O246" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P246">
         <v>33</v>
@@ -14764,10 +14836,10 @@
         <v>32</v>
       </c>
       <c r="N247" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="O247" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P247">
         <v>33</v>
@@ -14814,10 +14886,10 @@
         <v>32</v>
       </c>
       <c r="N248" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O248" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P248">
         <v>33</v>
@@ -14864,10 +14936,10 @@
         <v>32</v>
       </c>
       <c r="N249" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O249" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P249">
         <v>33</v>
@@ -14914,10 +14986,10 @@
         <v>32</v>
       </c>
       <c r="N250" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="O250" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P250">
         <v>33</v>
@@ -14964,10 +15036,10 @@
         <v>32</v>
       </c>
       <c r="N251" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="O251" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P251">
         <v>33</v>
@@ -15014,10 +15086,10 @@
         <v>32</v>
       </c>
       <c r="N252" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="O252" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P252">
         <v>33</v>
@@ -15064,10 +15136,10 @@
         <v>32</v>
       </c>
       <c r="N253" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="O253" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P253">
         <v>33</v>
@@ -15114,10 +15186,10 @@
         <v>32</v>
       </c>
       <c r="N254" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="O254" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P254">
         <v>33</v>
@@ -15164,10 +15236,10 @@
         <v>32</v>
       </c>
       <c r="N255" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O255" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P255">
         <v>33</v>
@@ -15214,10 +15286,10 @@
         <v>32</v>
       </c>
       <c r="N256" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="O256" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P256">
         <v>33</v>
@@ -15264,10 +15336,10 @@
         <v>32</v>
       </c>
       <c r="N257" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O257" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P257">
         <v>33</v>
@@ -15314,10 +15386,10 @@
         <v>32</v>
       </c>
       <c r="N258" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O258" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P258">
         <v>33</v>
@@ -15364,10 +15436,10 @@
         <v>32</v>
       </c>
       <c r="N259" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O259" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P259">
         <v>33</v>
@@ -15414,10 +15486,10 @@
         <v>32</v>
       </c>
       <c r="N260" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O260" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P260">
         <v>33</v>
@@ -15464,10 +15536,10 @@
         <v>32</v>
       </c>
       <c r="N261" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O261" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P261">
         <v>33</v>
@@ -15514,10 +15586,10 @@
         <v>32</v>
       </c>
       <c r="N262" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="O262" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P262">
         <v>33</v>
@@ -15564,10 +15636,10 @@
         <v>32</v>
       </c>
       <c r="N263" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O263" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P263">
         <v>33</v>
@@ -15614,10 +15686,10 @@
         <v>32</v>
       </c>
       <c r="N264" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="O264" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P264">
         <v>33</v>
@@ -15664,10 +15736,10 @@
         <v>32</v>
       </c>
       <c r="N265" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="O265" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P265">
         <v>33</v>
@@ -15714,10 +15786,10 @@
         <v>32</v>
       </c>
       <c r="N266" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O266" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P266">
         <v>33</v>
@@ -15764,10 +15836,10 @@
         <v>32</v>
       </c>
       <c r="N267" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="O267" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P267">
         <v>33</v>
@@ -15814,10 +15886,10 @@
         <v>32</v>
       </c>
       <c r="N268" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="O268" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P268">
         <v>33</v>
@@ -15864,10 +15936,10 @@
         <v>32</v>
       </c>
       <c r="N269" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="O269" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P269">
         <v>33</v>
@@ -15914,10 +15986,10 @@
         <v>32</v>
       </c>
       <c r="N270" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O270" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P270">
         <v>33</v>
@@ -15964,10 +16036,10 @@
         <v>32</v>
       </c>
       <c r="N271" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="O271" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P271">
         <v>33</v>
@@ -16014,10 +16086,10 @@
         <v>32</v>
       </c>
       <c r="N272" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="O272" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P272">
         <v>33</v>
@@ -16064,10 +16136,10 @@
         <v>32</v>
       </c>
       <c r="N273" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O273" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P273">
         <v>33</v>
@@ -16114,10 +16186,10 @@
         <v>32</v>
       </c>
       <c r="N274" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O274" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P274">
         <v>33</v>
@@ -16164,10 +16236,10 @@
         <v>32</v>
       </c>
       <c r="N275" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="O275" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P275">
         <v>33</v>
@@ -16214,10 +16286,10 @@
         <v>32</v>
       </c>
       <c r="N276" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="O276" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P276">
         <v>34</v>
@@ -16264,10 +16336,10 @@
         <v>32</v>
       </c>
       <c r="N277" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="O277" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P277">
         <v>34</v>
@@ -16314,10 +16386,10 @@
         <v>32</v>
       </c>
       <c r="N278" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="O278" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P278">
         <v>34</v>
@@ -16364,10 +16436,10 @@
         <v>32</v>
       </c>
       <c r="N279" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="O279" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P279">
         <v>34</v>
@@ -16414,10 +16486,10 @@
         <v>32</v>
       </c>
       <c r="N280" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="O280" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P280">
         <v>34</v>
@@ -16464,10 +16536,10 @@
         <v>32</v>
       </c>
       <c r="N281" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="O281" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P281">
         <v>35</v>
@@ -16514,10 +16586,10 @@
         <v>32</v>
       </c>
       <c r="N282" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="O282" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P282">
         <v>35</v>
@@ -16564,10 +16636,10 @@
         <v>186</v>
       </c>
       <c r="N283" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O283" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P283">
         <v>35</v>
@@ -16614,10 +16686,10 @@
         <v>32</v>
       </c>
       <c r="N284" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="O284" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P284">
         <v>35</v>
@@ -16664,10 +16736,10 @@
         <v>32</v>
       </c>
       <c r="N285" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O285" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P285">
         <v>35</v>
@@ -16714,10 +16786,10 @@
         <v>32</v>
       </c>
       <c r="N286" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="O286" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P286">
         <v>36</v>
@@ -16764,10 +16836,10 @@
         <v>187</v>
       </c>
       <c r="N287" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="O287" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P287">
         <v>34</v>
@@ -16814,10 +16886,10 @@
         <v>188</v>
       </c>
       <c r="N288" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="O288" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P288">
         <v>34</v>
@@ -16864,10 +16936,10 @@
         <v>32</v>
       </c>
       <c r="N289" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="O289" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P289">
         <v>34</v>
@@ -16914,10 +16986,10 @@
         <v>32</v>
       </c>
       <c r="N290" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="O290" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P290">
         <v>34</v>
@@ -16964,10 +17036,10 @@
         <v>189</v>
       </c>
       <c r="N291" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="O291" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P291">
         <v>34</v>
@@ -17014,10 +17086,10 @@
         <v>32</v>
       </c>
       <c r="N292" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O292" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P292">
         <v>35</v>
@@ -17064,10 +17136,10 @@
         <v>190</v>
       </c>
       <c r="N293" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="O293" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P293">
         <v>35</v>
@@ -17114,10 +17186,10 @@
         <v>32</v>
       </c>
       <c r="N294" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="O294" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P294">
         <v>35</v>
@@ -17164,10 +17236,10 @@
         <v>32</v>
       </c>
       <c r="N295" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="O295" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P295">
         <v>35</v>
@@ -17214,10 +17286,10 @@
         <v>32</v>
       </c>
       <c r="N296" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="O296" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="P296">
         <v>35</v>
@@ -17264,10 +17336,10 @@
         <v>189</v>
       </c>
       <c r="N297" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="O297" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P297">
         <v>36</v>
@@ -17314,10 +17386,10 @@
         <v>32</v>
       </c>
       <c r="N298" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="O298" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P298">
         <v>36</v>
@@ -17364,10 +17436,10 @@
         <v>180</v>
       </c>
       <c r="N299" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="O299" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P299">
         <v>36</v>
@@ -17414,10 +17486,10 @@
         <v>32</v>
       </c>
       <c r="N300" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="O300" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P300">
         <v>36</v>
@@ -17464,10 +17536,10 @@
         <v>189</v>
       </c>
       <c r="N301" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O301" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P301">
         <v>36</v>
@@ -17514,10 +17586,10 @@
         <v>191</v>
       </c>
       <c r="N302" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="O302" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P302">
         <v>37</v>
@@ -17564,10 +17636,10 @@
         <v>192</v>
       </c>
       <c r="N303" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="O303" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P303">
         <v>37</v>
@@ -17614,10 +17686,10 @@
         <v>193</v>
       </c>
       <c r="N304" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="O304" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P304">
         <v>37</v>
@@ -17664,10 +17736,10 @@
         <v>194</v>
       </c>
       <c r="N305" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="O305" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P305">
         <v>37</v>
@@ -17714,10 +17786,10 @@
         <v>195</v>
       </c>
       <c r="N306" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="O306" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P306">
         <v>37</v>
@@ -17764,10 +17836,10 @@
         <v>196</v>
       </c>
       <c r="N307" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O307" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="P307">
         <v>34</v>
@@ -17814,10 +17886,10 @@
         <v>197</v>
       </c>
       <c r="N308" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="O308" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="P308">
         <v>34</v>
@@ -17864,10 +17936,10 @@
         <v>198</v>
       </c>
       <c r="N309" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="O309" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="P309">
         <v>34</v>
@@ -17914,10 +17986,10 @@
         <v>32</v>
       </c>
       <c r="N310" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="O310" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="P310">
         <v>34</v>
@@ -17964,10 +18036,10 @@
         <v>32</v>
       </c>
       <c r="N311" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="O311" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="P311">
         <v>34</v>
@@ -18014,10 +18086,10 @@
         <v>32</v>
       </c>
       <c r="N312" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="O312" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P312">
         <v>35</v>
@@ -18064,10 +18136,10 @@
         <v>32</v>
       </c>
       <c r="N313" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="O313" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P313">
         <v>35</v>
@@ -18114,10 +18186,10 @@
         <v>32</v>
       </c>
       <c r="N314" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="O314" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P314">
         <v>35</v>
@@ -18164,10 +18236,10 @@
         <v>32</v>
       </c>
       <c r="N315" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="O315" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P315">
         <v>35</v>
@@ -18214,10 +18286,10 @@
         <v>199</v>
       </c>
       <c r="N316" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="O316" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P316">
         <v>35</v>
@@ -18264,10 +18336,10 @@
         <v>32</v>
       </c>
       <c r="N317" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="O317" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P317">
         <v>36</v>
@@ -18314,10 +18386,10 @@
         <v>32</v>
       </c>
       <c r="N318" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="O318" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P318">
         <v>36</v>
@@ -18364,10 +18436,10 @@
         <v>170</v>
       </c>
       <c r="N319" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="O319" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P319">
         <v>36</v>
@@ -18414,10 +18486,10 @@
         <v>32</v>
       </c>
       <c r="N320" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="O320" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P320">
         <v>36</v>
@@ -18464,10 +18536,10 @@
         <v>32</v>
       </c>
       <c r="N321" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="O321" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P321">
         <v>36</v>
@@ -18514,10 +18586,10 @@
         <v>32</v>
       </c>
       <c r="N322" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="O322" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="P322">
         <v>37</v>
@@ -18564,10 +18636,10 @@
         <v>32</v>
       </c>
       <c r="N323" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="O323" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="P323">
         <v>37</v>
@@ -18614,10 +18686,10 @@
         <v>196</v>
       </c>
       <c r="N324" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="O324" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="P324">
         <v>37</v>
@@ -18664,10 +18736,10 @@
         <v>32</v>
       </c>
       <c r="N325" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="O325" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="P325">
         <v>37</v>
@@ -18714,10 +18786,10 @@
         <v>32</v>
       </c>
       <c r="N326" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="O326" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="P326">
         <v>37</v>
@@ -18764,10 +18836,10 @@
         <v>200</v>
       </c>
       <c r="N327" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="O327" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P327">
         <v>33</v>
@@ -18814,10 +18886,10 @@
         <v>201</v>
       </c>
       <c r="N328" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="O328" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P328">
         <v>33</v>
@@ -18864,10 +18936,10 @@
         <v>202</v>
       </c>
       <c r="N329" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="O329" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P329">
         <v>33</v>
@@ -18914,10 +18986,10 @@
         <v>203</v>
       </c>
       <c r="N330" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="O330" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P330">
         <v>33</v>
@@ -18964,10 +19036,10 @@
         <v>204</v>
       </c>
       <c r="N331" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="O331" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P331">
         <v>33</v>
@@ -19014,10 +19086,10 @@
         <v>205</v>
       </c>
       <c r="N332" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="O332" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P332">
         <v>33</v>
@@ -19064,10 +19136,10 @@
         <v>206</v>
       </c>
       <c r="N333" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="O333" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P333">
         <v>33</v>
@@ -19114,10 +19186,10 @@
         <v>207</v>
       </c>
       <c r="N334" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="O334" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P334">
         <v>33</v>
@@ -19164,10 +19236,10 @@
         <v>208</v>
       </c>
       <c r="N335" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="O335" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P335">
         <v>33</v>
@@ -19214,10 +19286,10 @@
         <v>209</v>
       </c>
       <c r="N336" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="O336" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P336">
         <v>33</v>
@@ -19264,10 +19336,10 @@
         <v>210</v>
       </c>
       <c r="N337" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="O337" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P337">
         <v>33</v>
@@ -19314,10 +19386,10 @@
         <v>211</v>
       </c>
       <c r="N338" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="O338" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P338">
         <v>33</v>
@@ -19364,10 +19436,10 @@
         <v>212</v>
       </c>
       <c r="N339" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="O339" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P339">
         <v>33</v>
@@ -19414,10 +19486,10 @@
         <v>213</v>
       </c>
       <c r="N340" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="O340" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P340">
         <v>33</v>
@@ -19464,10 +19536,10 @@
         <v>214</v>
       </c>
       <c r="N341" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="O341" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P341">
         <v>33</v>
@@ -19514,10 +19586,10 @@
         <v>215</v>
       </c>
       <c r="N342" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="O342" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="P342">
         <v>22</v>
@@ -19564,10 +19636,10 @@
         <v>216</v>
       </c>
       <c r="N343" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="O343" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="P343">
         <v>21</v>
@@ -19614,10 +19686,10 @@
         <v>217</v>
       </c>
       <c r="N344" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="O344" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P344">
         <v>21</v>
@@ -19664,10 +19736,10 @@
         <v>218</v>
       </c>
       <c r="N345" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="O345" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P345">
         <v>21</v>
@@ -19714,10 +19786,10 @@
         <v>219</v>
       </c>
       <c r="N346" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="O346" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P346">
         <v>24</v>
@@ -19764,10 +19836,10 @@
         <v>220</v>
       </c>
       <c r="N347" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="O347" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P347">
         <v>24</v>
@@ -19814,10 +19886,10 @@
         <v>221</v>
       </c>
       <c r="N348" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="O348" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P348">
         <v>24</v>
@@ -19864,10 +19936,10 @@
         <v>222</v>
       </c>
       <c r="N349" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="O349" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P349">
         <v>24</v>
@@ -19914,10 +19986,10 @@
         <v>223</v>
       </c>
       <c r="N350" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="O350" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P350">
         <v>24</v>
@@ -19964,10 +20036,10 @@
         <v>224</v>
       </c>
       <c r="N351" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="O351" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P351">
         <v>24</v>
@@ -20014,10 +20086,10 @@
         <v>225</v>
       </c>
       <c r="N352" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="O352" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P352">
         <v>24</v>
@@ -20064,10 +20136,10 @@
         <v>226</v>
       </c>
       <c r="N353" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="O353" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P353">
         <v>24</v>
@@ -20114,10 +20186,10 @@
         <v>227</v>
       </c>
       <c r="N354" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="O354" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P354">
         <v>24</v>
@@ -20164,10 +20236,10 @@
         <v>228</v>
       </c>
       <c r="N355" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="O355" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P355">
         <v>24</v>
@@ -20214,10 +20286,10 @@
         <v>229</v>
       </c>
       <c r="N356" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="O356" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P356">
         <v>24</v>
@@ -20264,10 +20336,10 @@
         <v>230</v>
       </c>
       <c r="N357" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="O357" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P357">
         <v>24</v>
@@ -20314,10 +20386,10 @@
         <v>231</v>
       </c>
       <c r="N358" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="O358" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P358">
         <v>24</v>
@@ -20364,10 +20436,10 @@
         <v>232</v>
       </c>
       <c r="N359" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="O359" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P359">
         <v>24</v>
@@ -20414,10 +20486,10 @@
         <v>233</v>
       </c>
       <c r="N360" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="O360" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P360">
         <v>24</v>
@@ -20464,10 +20536,10 @@
         <v>234</v>
       </c>
       <c r="N361" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="O361" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P361">
         <v>24</v>
@@ -20514,10 +20586,10 @@
         <v>235</v>
       </c>
       <c r="N362" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="O362" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P362">
         <v>24</v>
@@ -20564,10 +20636,10 @@
         <v>236</v>
       </c>
       <c r="N363" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="O363" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P363">
         <v>24</v>
@@ -20614,10 +20686,10 @@
         <v>237</v>
       </c>
       <c r="N364" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="O364" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P364">
         <v>24</v>
@@ -20664,10 +20736,10 @@
         <v>238</v>
       </c>
       <c r="N365" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="O365" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P365">
         <v>24</v>
@@ -20714,10 +20786,10 @@
         <v>239</v>
       </c>
       <c r="N366" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="O366" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P366">
         <v>24</v>
@@ -20764,10 +20836,10 @@
         <v>240</v>
       </c>
       <c r="N367" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="O367" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P367">
         <v>24</v>
@@ -20814,10 +20886,10 @@
         <v>241</v>
       </c>
       <c r="N368" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="O368" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P368">
         <v>24</v>
@@ -20864,10 +20936,10 @@
         <v>242</v>
       </c>
       <c r="N369" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="O369" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P369">
         <v>24</v>
@@ -20914,10 +20986,10 @@
         <v>243</v>
       </c>
       <c r="N370" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="O370" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P370">
         <v>24</v>
@@ -20964,10 +21036,10 @@
         <v>244</v>
       </c>
       <c r="N371" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O371" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P371">
         <v>24</v>
@@ -21014,10 +21086,10 @@
         <v>245</v>
       </c>
       <c r="N372" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="O372" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P372">
         <v>24</v>
@@ -21064,10 +21136,10 @@
         <v>246</v>
       </c>
       <c r="N373" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="O373" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P373">
         <v>24</v>
@@ -21114,10 +21186,10 @@
         <v>247</v>
       </c>
       <c r="N374" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="O374" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P374">
         <v>24</v>
@@ -21164,10 +21236,10 @@
         <v>248</v>
       </c>
       <c r="N375" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="O375" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P375">
         <v>24</v>
@@ -21214,10 +21286,10 @@
         <v>32</v>
       </c>
       <c r="N376" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="O376" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="P376">
         <v>21</v>
@@ -21264,10 +21336,10 @@
         <v>249</v>
       </c>
       <c r="N377" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="O377" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="P377">
         <v>21</v>
@@ -21314,10 +21386,10 @@
         <v>32</v>
       </c>
       <c r="N378" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="O378" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="P378">
         <v>21</v>
@@ -21364,10 +21436,10 @@
         <v>250</v>
       </c>
       <c r="N379" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="O379" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P379">
         <v>32</v>
@@ -21414,10 +21486,10 @@
         <v>251</v>
       </c>
       <c r="N380" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="O380" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="P380">
         <v>36</v>
@@ -21464,10 +21536,10 @@
         <v>32</v>
       </c>
       <c r="N381" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="O381" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P381">
         <v>38</v>
@@ -21514,10 +21586,10 @@
         <v>32</v>
       </c>
       <c r="N382" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="O382" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P382">
         <v>39</v>
@@ -21564,10 +21636,10 @@
         <v>32</v>
       </c>
       <c r="N383" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="O383" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="P383">
         <v>40</v>
@@ -21614,10 +21686,10 @@
         <v>32</v>
       </c>
       <c r="N384" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="O384" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P384">
         <v>38</v>
@@ -21664,10 +21736,10 @@
         <v>32</v>
       </c>
       <c r="N385" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="O385" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P385">
         <v>39</v>
@@ -21714,10 +21786,10 @@
         <v>32</v>
       </c>
       <c r="N386" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="O386" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="P386">
         <v>40</v>
@@ -21764,10 +21836,10 @@
         <v>252</v>
       </c>
       <c r="N387" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="O387" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P387">
         <v>39</v>
@@ -21814,10 +21886,10 @@
         <v>32</v>
       </c>
       <c r="N388" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="O388" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P388">
         <v>33</v>
@@ -21864,10 +21936,10 @@
         <v>253</v>
       </c>
       <c r="N389" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="O389" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P389">
         <v>33</v>
@@ -21914,10 +21986,10 @@
         <v>184</v>
       </c>
       <c r="N390" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="O390" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P390">
         <v>33</v>
@@ -21964,10 +22036,10 @@
         <v>113</v>
       </c>
       <c r="N391" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="O391" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P391">
         <v>33</v>
@@ -22014,10 +22086,10 @@
         <v>32</v>
       </c>
       <c r="N392" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="O392" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P392">
         <v>33</v>
@@ -22064,10 +22136,10 @@
         <v>32</v>
       </c>
       <c r="N393" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="O393" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P393">
         <v>33</v>
@@ -22114,10 +22186,10 @@
         <v>32</v>
       </c>
       <c r="N394" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="O394" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P394">
         <v>33</v>
@@ -22164,10 +22236,10 @@
         <v>32</v>
       </c>
       <c r="N395" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="O395" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P395">
         <v>33</v>
@@ -22214,13 +22286,763 @@
         <v>254</v>
       </c>
       <c r="N396" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="O396" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="P396">
         <v>40</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="D397">
+        <v>439</v>
+      </c>
+      <c r="E397">
+        <v>30</v>
+      </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
+      <c r="G397">
+        <v>15.13793103448276</v>
+      </c>
+      <c r="H397">
+        <v>19</v>
+      </c>
+      <c r="I397">
+        <v>30</v>
+      </c>
+      <c r="J397">
+        <v>6.094645023345947</v>
+      </c>
+      <c r="K397">
+        <v>1.619926199261993</v>
+      </c>
+      <c r="L397" t="s">
+        <v>32</v>
+      </c>
+      <c r="M397" t="s">
+        <v>96</v>
+      </c>
+      <c r="N397" t="s">
+        <v>654</v>
+      </c>
+      <c r="O397" t="s">
+        <v>702</v>
+      </c>
+      <c r="P397">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>451</v>
+      </c>
+      <c r="E398">
+        <v>31</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H398">
+        <v>7</v>
+      </c>
+      <c r="I398">
+        <v>9</v>
+      </c>
+      <c r="J398">
+        <v>4.21491813659668</v>
+      </c>
+      <c r="K398">
+        <v>1.549828178694158</v>
+      </c>
+      <c r="L398" t="s">
+        <v>32</v>
+      </c>
+      <c r="M398" t="s">
+        <v>32</v>
+      </c>
+      <c r="N398" t="s">
+        <v>655</v>
+      </c>
+      <c r="O398" t="s">
+        <v>702</v>
+      </c>
+      <c r="P398">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>6</v>
+      </c>
+      <c r="C399">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="D399">
+        <v>1427</v>
+      </c>
+      <c r="E399">
+        <v>65</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <v>21.62121212121212</v>
+      </c>
+      <c r="H399">
+        <v>22</v>
+      </c>
+      <c r="I399">
+        <v>14</v>
+      </c>
+      <c r="J399">
+        <v>178.6879358291626</v>
+      </c>
+      <c r="K399">
+        <v>1.97372060857538</v>
+      </c>
+      <c r="L399" t="s">
+        <v>32</v>
+      </c>
+      <c r="M399" t="s">
+        <v>255</v>
+      </c>
+      <c r="N399" t="s">
+        <v>656</v>
+      </c>
+      <c r="O399" t="s">
+        <v>703</v>
+      </c>
+      <c r="P399">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="D400">
+        <v>1446</v>
+      </c>
+      <c r="E400">
+        <v>53</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400">
+        <v>20.95652173913043</v>
+      </c>
+      <c r="H400">
+        <v>37</v>
+      </c>
+      <c r="I400">
+        <v>13</v>
+      </c>
+      <c r="J400">
+        <v>223.0230333805084</v>
+      </c>
+      <c r="K400">
+        <v>1.938337801608579</v>
+      </c>
+      <c r="L400" t="s">
+        <v>32</v>
+      </c>
+      <c r="M400" t="s">
+        <v>93</v>
+      </c>
+      <c r="N400" t="s">
+        <v>657</v>
+      </c>
+      <c r="O400" t="s">
+        <v>703</v>
+      </c>
+      <c r="P400">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>6</v>
+      </c>
+      <c r="C401">
+        <v>0.9571428571428572</v>
+      </c>
+      <c r="D401">
+        <v>1315</v>
+      </c>
+      <c r="E401">
+        <v>46</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+      <c r="G401">
+        <v>19.62686567164179</v>
+      </c>
+      <c r="H401">
+        <v>22</v>
+      </c>
+      <c r="I401">
+        <v>7</v>
+      </c>
+      <c r="J401">
+        <v>22.23829555511475</v>
+      </c>
+      <c r="K401">
+        <v>1.79399727148704</v>
+      </c>
+      <c r="L401" t="s">
+        <v>32</v>
+      </c>
+      <c r="M401" t="s">
+        <v>256</v>
+      </c>
+      <c r="N401" t="s">
+        <v>658</v>
+      </c>
+      <c r="O401" t="s">
+        <v>704</v>
+      </c>
+      <c r="P401">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>6</v>
+      </c>
+      <c r="C402">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="D402">
+        <v>1144</v>
+      </c>
+      <c r="E402">
+        <v>42</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402">
+        <v>16.82352941176471</v>
+      </c>
+      <c r="H402">
+        <v>31</v>
+      </c>
+      <c r="I402">
+        <v>20</v>
+      </c>
+      <c r="J402">
+        <v>255.4092283248901</v>
+      </c>
+      <c r="K402">
+        <v>1.55858310626703</v>
+      </c>
+      <c r="L402" t="s">
+        <v>32</v>
+      </c>
+      <c r="M402" t="s">
+        <v>257</v>
+      </c>
+      <c r="N402" t="s">
+        <v>659</v>
+      </c>
+      <c r="O402" t="s">
+        <v>703</v>
+      </c>
+      <c r="P402">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D403">
+        <v>1259</v>
+      </c>
+      <c r="E403">
+        <v>70</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
+      </c>
+      <c r="G403">
+        <v>20.30645161290322</v>
+      </c>
+      <c r="H403">
+        <v>16</v>
+      </c>
+      <c r="I403">
+        <v>29</v>
+      </c>
+      <c r="J403">
+        <v>17.20071244239807</v>
+      </c>
+      <c r="K403">
+        <v>1.89894419306184</v>
+      </c>
+      <c r="L403" t="s">
+        <v>32</v>
+      </c>
+      <c r="M403" t="s">
+        <v>258</v>
+      </c>
+      <c r="N403" t="s">
+        <v>660</v>
+      </c>
+      <c r="O403" t="s">
+        <v>705</v>
+      </c>
+      <c r="P403">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>409</v>
+      </c>
+      <c r="E404">
+        <v>42</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>13.63333333333333</v>
+      </c>
+      <c r="H404">
+        <v>23</v>
+      </c>
+      <c r="I404">
+        <v>9</v>
+      </c>
+      <c r="J404">
+        <v>10.64453601837158</v>
+      </c>
+      <c r="K404">
+        <v>1.405498281786941</v>
+      </c>
+      <c r="L404" t="s">
+        <v>32</v>
+      </c>
+      <c r="M404" t="s">
+        <v>32</v>
+      </c>
+      <c r="N404" t="s">
+        <v>661</v>
+      </c>
+      <c r="O404" t="s">
+        <v>705</v>
+      </c>
+      <c r="P404">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>451</v>
+      </c>
+      <c r="E405">
+        <v>31</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H405">
+        <v>11</v>
+      </c>
+      <c r="I405">
+        <v>25</v>
+      </c>
+      <c r="J405">
+        <v>1.690035581588745</v>
+      </c>
+      <c r="K405">
+        <v>1.549828178694158</v>
+      </c>
+      <c r="L405" t="s">
+        <v>32</v>
+      </c>
+      <c r="M405" t="s">
+        <v>32</v>
+      </c>
+      <c r="N405" t="s">
+        <v>662</v>
+      </c>
+      <c r="O405" t="s">
+        <v>705</v>
+      </c>
+      <c r="P405">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>451</v>
+      </c>
+      <c r="E406">
+        <v>31</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+      <c r="G406">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H406">
+        <v>15</v>
+      </c>
+      <c r="I406">
+        <v>9</v>
+      </c>
+      <c r="J406">
+        <v>1.628046989440918</v>
+      </c>
+      <c r="K406">
+        <v>1.549828178694158</v>
+      </c>
+      <c r="L406" t="s">
+        <v>32</v>
+      </c>
+      <c r="M406" t="s">
+        <v>32</v>
+      </c>
+      <c r="N406" t="s">
+        <v>663</v>
+      </c>
+      <c r="O406" t="s">
+        <v>705</v>
+      </c>
+      <c r="P406">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>451</v>
+      </c>
+      <c r="E407">
+        <v>31</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+      <c r="G407">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H407">
+        <v>12</v>
+      </c>
+      <c r="I407">
+        <v>26</v>
+      </c>
+      <c r="J407">
+        <v>1.628986358642578</v>
+      </c>
+      <c r="K407">
+        <v>1.549828178694158</v>
+      </c>
+      <c r="L407" t="s">
+        <v>32</v>
+      </c>
+      <c r="M407" t="s">
+        <v>32</v>
+      </c>
+      <c r="N407" t="s">
+        <v>664</v>
+      </c>
+      <c r="O407" t="s">
+        <v>705</v>
+      </c>
+      <c r="P407">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>371</v>
+      </c>
+      <c r="E408">
+        <v>30</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
+        <v>26</v>
+      </c>
+      <c r="J408">
+        <v>9.357005596160889</v>
+      </c>
+      <c r="K408">
+        <v>1.274914089347079</v>
+      </c>
+      <c r="L408" t="s">
+        <v>32</v>
+      </c>
+      <c r="M408" t="s">
+        <v>32</v>
+      </c>
+      <c r="N408" t="s">
+        <v>665</v>
+      </c>
+      <c r="O408" t="s">
+        <v>705</v>
+      </c>
+      <c r="P408">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>371</v>
+      </c>
+      <c r="E409">
+        <v>30</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+      <c r="G409">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H409">
+        <v>4</v>
+      </c>
+      <c r="I409">
+        <v>7</v>
+      </c>
+      <c r="J409">
+        <v>150.8492684364319</v>
+      </c>
+      <c r="K409">
+        <v>1.274914089347079</v>
+      </c>
+      <c r="L409" t="s">
+        <v>32</v>
+      </c>
+      <c r="M409" t="s">
+        <v>32</v>
+      </c>
+      <c r="N409" t="s">
+        <v>666</v>
+      </c>
+      <c r="O409" t="s">
+        <v>702</v>
+      </c>
+      <c r="P409">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>411</v>
+      </c>
+      <c r="E410">
+        <v>31</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+      <c r="G410">
+        <v>13.7</v>
+      </c>
+      <c r="H410">
+        <v>21</v>
+      </c>
+      <c r="I410">
+        <v>18</v>
+      </c>
+      <c r="J410">
+        <v>52.73446249961853</v>
+      </c>
+      <c r="K410">
+        <v>1.412371134020619</v>
+      </c>
+      <c r="L410" t="s">
+        <v>32</v>
+      </c>
+      <c r="M410" t="s">
+        <v>32</v>
+      </c>
+      <c r="N410" t="s">
+        <v>667</v>
+      </c>
+      <c r="O410" t="s">
+        <v>706</v>
+      </c>
+      <c r="P410">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>411</v>
+      </c>
+      <c r="E411">
+        <v>31</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411">
+        <v>13.7</v>
+      </c>
+      <c r="H411">
+        <v>15</v>
+      </c>
+      <c r="I411">
+        <v>14</v>
+      </c>
+      <c r="J411">
+        <v>51.30682945251465</v>
+      </c>
+      <c r="K411">
+        <v>1.412371134020619</v>
+      </c>
+      <c r="L411" t="s">
+        <v>32</v>
+      </c>
+      <c r="M411" t="s">
+        <v>32</v>
+      </c>
+      <c r="N411" t="s">
+        <v>668</v>
+      </c>
+      <c r="O411" t="s">
+        <v>706</v>
+      </c>
+      <c r="P411">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/chipSolver/data/new.xlsx
+++ b/chipSolver/data/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="720">
   <si>
     <t>netlist</t>
   </si>
@@ -793,6 +793,21 @@
     <t>[((12, 6, 0), (15, 1, 0)), ((9, 10, 0), (14, 2, 0)), ((1, 3, 0), (10, 12, 0)), ((6, 14, 0), (4, 5, 0)), ((10, 12, 0), (7, 8, 0)), ((9, 8, 0), (1, 15, 0)), ((8, 4, 0), (16, 15, 0)), ((10, 12, 0), (6, 15, 0))]</t>
   </si>
   <si>
+    <t>[((9, 10, 0), (14, 2, 0)), ((1, 3, 0), (9, 10, 0))]</t>
+  </si>
+  <si>
+    <t>[((15, 12, 0), (6, 8, 0))]</t>
+  </si>
+  <si>
+    <t>[((7, 12, 0), (6, 1, 0)), ((7, 12, 0), (11, 8, 0)), ((4, 14, 0), (12, 6, 0)), ((1, 3, 0), (9, 10, 0)), ((10, 1, 0), (12, 11, 0)), ((9, 13, 0), (15, 8, 0)), ((14, 2, 0), (16, 7, 0)), ((11, 8, 0), (8, 15, 0)), ((16, 7, 0), (6, 9, 0)), ((8, 15, 0), (4, 5, 0)), ((6, 3, 0), (11, 5, 0)), ((16, 5, 0), (12, 2, 0))]</t>
+  </si>
+  <si>
+    <t>[((8, 15, 0), (4, 5, 0)), ((12, 11, 0), (1, 15, 0)), ((9, 13, 0), (15, 8, 0)), ((10, 6, 0), (4, 12, 0)), ((10, 1, 0), (6, 9, 0)), ((10, 1, 0), (7, 12, 0)), ((13, 13, 0), (6, 8, 0)), ((9, 10, 0), (14, 2, 0)), ((1, 9, 0), (6, 14, 0)), ((4, 5, 0), (15, 1, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 3, 0), (15, 8, 0)), ((10, 12, 0), (7, 8, 0)), ((11, 15, 0), (7, 8, 0)), ((10, 1, 0), (6, 9, 0)), ((4, 14, 0), (12, 6, 0)), ((9, 10, 0), (14, 2, 0)), ((4, 12, 0), (7, 8, 0)), ((8, 4, 0), (16, 15, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=21, tm_hour=15, tm_min=38, tm_sec=37, tm_wday=1, tm_yday=141, tm_isdst=1)</t>
   </si>
   <si>
@@ -2021,6 +2036,30 @@
   </si>
   <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=13, tm_min=53, tm_sec=54, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=18, tm_min=56, tm_sec=24, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=18, tm_min=57, tm_sec=23, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=19, tm_min=6, tm_sec=25, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=19, tm_min=12, tm_sec=35, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=19, tm_min=16, tm_sec=36, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=19, tm_min=25, tm_sec=14, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=20, tm_min=1, tm_sec=13, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=24, tm_hour=20, tm_min=30, tm_sec=33, tm_wday=4, tm_yday=144, tm_isdst=1)</t>
   </si>
   <si>
     <t>[0.0, 1.1, 1.2, 1.1, 1.0, 0.9, 0.8, 0.7, 0.7, 400.0, 10.0, 0.2, 10.0, 0.0, 0.0]</t>
@@ -2492,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P411"/>
+  <dimension ref="A1:P419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2586,10 +2625,10 @@
         <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O2" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -2636,10 +2675,10 @@
         <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -2686,10 +2725,10 @@
         <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O4" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P4">
         <v>20</v>
@@ -2736,10 +2775,10 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O5" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P5">
         <v>20</v>
@@ -2786,10 +2825,10 @@
         <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O6" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -2836,10 +2875,10 @@
         <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P7">
         <v>20</v>
@@ -2886,10 +2925,10 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O8" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -2936,10 +2975,10 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O9" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -2986,10 +3025,10 @@
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O10" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P10">
         <v>20</v>
@@ -3036,10 +3075,10 @@
         <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O11" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P11">
         <v>20</v>
@@ -3086,10 +3125,10 @@
         <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O12" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P12">
         <v>20</v>
@@ -3136,10 +3175,10 @@
         <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O13" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P13">
         <v>20</v>
@@ -3186,10 +3225,10 @@
         <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O14" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P14">
         <v>20</v>
@@ -3236,10 +3275,10 @@
         <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O15" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P15">
         <v>20</v>
@@ -3286,10 +3325,10 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O16" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -3336,10 +3375,10 @@
         <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O17" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -3386,10 +3425,10 @@
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P18">
         <v>20</v>
@@ -3436,10 +3475,10 @@
         <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O19" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P19">
         <v>22</v>
@@ -3486,10 +3525,10 @@
         <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O20" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P20">
         <v>22</v>
@@ -3536,10 +3575,10 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="O21" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P21">
         <v>22</v>
@@ -3586,10 +3625,10 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O22" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="P22">
         <v>22</v>
@@ -3636,10 +3675,10 @@
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O23" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="P23">
         <v>22</v>
@@ -3686,10 +3725,10 @@
         <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O24" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="P24">
         <v>21</v>
@@ -3736,10 +3775,10 @@
         <v>89</v>
       </c>
       <c r="N25" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O25" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="P25">
         <v>22</v>
@@ -3786,10 +3825,10 @@
         <v>90</v>
       </c>
       <c r="N26" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="P26">
         <v>21</v>
@@ -3836,10 +3875,10 @@
         <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="P27">
         <v>21</v>
@@ -3886,10 +3925,10 @@
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="P28">
         <v>22</v>
@@ -3936,10 +3975,10 @@
         <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P29">
         <v>22</v>
@@ -3986,10 +4025,10 @@
         <v>92</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P30">
         <v>22</v>
@@ -4036,10 +4075,10 @@
         <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P31">
         <v>20</v>
@@ -4086,10 +4125,10 @@
         <v>93</v>
       </c>
       <c r="N32" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P32">
         <v>22</v>
@@ -4136,10 +4175,10 @@
         <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="P33">
         <v>22</v>
@@ -4186,10 +4225,10 @@
         <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P34">
         <v>27</v>
@@ -4236,10 +4275,10 @@
         <v>95</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O35" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P35">
         <v>22</v>
@@ -4286,10 +4325,10 @@
         <v>96</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="P36">
         <v>22</v>
@@ -4336,10 +4375,10 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P37">
         <v>22</v>
@@ -4386,10 +4425,10 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P38">
         <v>22</v>
@@ -4436,10 +4475,10 @@
         <v>96</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P39">
         <v>22</v>
@@ -4486,10 +4525,10 @@
         <v>96</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="O40" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P40">
         <v>22</v>
@@ -4536,10 +4575,10 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O41" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P41">
         <v>22</v>
@@ -4586,10 +4625,10 @@
         <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P42">
         <v>22</v>
@@ -4636,10 +4675,10 @@
         <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P43">
         <v>22</v>
@@ -4686,10 +4725,10 @@
         <v>97</v>
       </c>
       <c r="N44" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P44">
         <v>22</v>
@@ -4736,10 +4775,10 @@
         <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O45" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="P45">
         <v>22</v>
@@ -4786,10 +4825,10 @@
         <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O46" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="P46">
         <v>22</v>
@@ -4836,10 +4875,10 @@
         <v>99</v>
       </c>
       <c r="N47" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P47">
         <v>27</v>
@@ -4886,10 +4925,10 @@
         <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P48">
         <v>27</v>
@@ -4936,10 +4975,10 @@
         <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P49">
         <v>22</v>
@@ -4986,10 +5025,10 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O50" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P50">
         <v>27</v>
@@ -5036,10 +5075,10 @@
         <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P51">
         <v>27</v>
@@ -5086,10 +5125,10 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O52" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="P52">
         <v>22</v>
@@ -5136,10 +5175,10 @@
         <v>101</v>
       </c>
       <c r="N53" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O53" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="P53">
         <v>22</v>
@@ -5186,10 +5225,10 @@
         <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O54" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P54">
         <v>27</v>
@@ -5236,10 +5275,10 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O55" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P55">
         <v>27</v>
@@ -5286,10 +5325,10 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="P56">
         <v>22</v>
@@ -5336,10 +5375,10 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O57" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P57">
         <v>22</v>
@@ -5386,10 +5425,10 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="O58" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P58">
         <v>22</v>
@@ -5436,10 +5475,10 @@
         <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O59" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P59">
         <v>22</v>
@@ -5486,10 +5525,10 @@
         <v>107</v>
       </c>
       <c r="N60" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O60" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P60">
         <v>27</v>
@@ -5536,10 +5575,10 @@
         <v>108</v>
       </c>
       <c r="N61" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O61" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P61">
         <v>27</v>
@@ -5586,10 +5625,10 @@
         <v>109</v>
       </c>
       <c r="N62" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O62" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P62">
         <v>22</v>
@@ -5636,10 +5675,10 @@
         <v>110</v>
       </c>
       <c r="N63" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="O63" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="P63">
         <v>22</v>
@@ -5686,10 +5725,10 @@
         <v>111</v>
       </c>
       <c r="N64" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O64" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="P64">
         <v>22</v>
@@ -5736,10 +5775,10 @@
         <v>112</v>
       </c>
       <c r="N65" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="O65" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="P65">
         <v>22</v>
@@ -5786,10 +5825,10 @@
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O66" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P66">
         <v>27</v>
@@ -5836,10 +5875,10 @@
         <v>113</v>
       </c>
       <c r="N67" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O67" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P67">
         <v>27</v>
@@ -5886,10 +5925,10 @@
         <v>114</v>
       </c>
       <c r="N68" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O68" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P68">
         <v>27</v>
@@ -5936,10 +5975,10 @@
         <v>115</v>
       </c>
       <c r="N69" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O69" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P69">
         <v>27</v>
@@ -5986,10 +6025,10 @@
         <v>116</v>
       </c>
       <c r="N70" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O70" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P70">
         <v>27</v>
@@ -6036,10 +6075,10 @@
         <v>117</v>
       </c>
       <c r="N71" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O71" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="P71">
         <v>27</v>
@@ -6086,10 +6125,10 @@
         <v>118</v>
       </c>
       <c r="N72" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O72" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P72">
         <v>27</v>
@@ -6136,10 +6175,10 @@
         <v>119</v>
       </c>
       <c r="N73" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O73" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P73">
         <v>27</v>
@@ -6186,10 +6225,10 @@
         <v>120</v>
       </c>
       <c r="N74" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O74" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P74">
         <v>27</v>
@@ -6236,10 +6275,10 @@
         <v>121</v>
       </c>
       <c r="N75" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="O75" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P75">
         <v>27</v>
@@ -6286,10 +6325,10 @@
         <v>122</v>
       </c>
       <c r="N76" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="O76" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P76">
         <v>27</v>
@@ -6336,10 +6375,10 @@
         <v>123</v>
       </c>
       <c r="N77" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O77" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P77">
         <v>27</v>
@@ -6386,10 +6425,10 @@
         <v>124</v>
       </c>
       <c r="N78" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O78" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P78">
         <v>27</v>
@@ -6436,10 +6475,10 @@
         <v>125</v>
       </c>
       <c r="N79" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="O79" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P79">
         <v>27</v>
@@ -6486,10 +6525,10 @@
         <v>126</v>
       </c>
       <c r="N80" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O80" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P80">
         <v>27</v>
@@ -6536,10 +6575,10 @@
         <v>127</v>
       </c>
       <c r="N81" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="O81" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P81">
         <v>27</v>
@@ -6586,10 +6625,10 @@
         <v>128</v>
       </c>
       <c r="N82" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O82" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P82">
         <v>27</v>
@@ -6636,10 +6675,10 @@
         <v>129</v>
       </c>
       <c r="N83" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O83" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P83">
         <v>27</v>
@@ -6686,10 +6725,10 @@
         <v>130</v>
       </c>
       <c r="N84" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O84" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P84">
         <v>27</v>
@@ -6736,10 +6775,10 @@
         <v>131</v>
       </c>
       <c r="N85" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="O85" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P85">
         <v>27</v>
@@ -6786,10 +6825,10 @@
         <v>132</v>
       </c>
       <c r="N86" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O86" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P86">
         <v>27</v>
@@ -6836,10 +6875,10 @@
         <v>133</v>
       </c>
       <c r="N87" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O87" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P87">
         <v>27</v>
@@ -6886,10 +6925,10 @@
         <v>134</v>
       </c>
       <c r="N88" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O88" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P88">
         <v>27</v>
@@ -6936,10 +6975,10 @@
         <v>135</v>
       </c>
       <c r="N89" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O89" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P89">
         <v>27</v>
@@ -6986,10 +7025,10 @@
         <v>136</v>
       </c>
       <c r="N90" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="O90" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P90">
         <v>27</v>
@@ -7036,10 +7075,10 @@
         <v>137</v>
       </c>
       <c r="N91" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O91" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P91">
         <v>27</v>
@@ -7086,10 +7125,10 @@
         <v>138</v>
       </c>
       <c r="N92" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O92" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P92">
         <v>27</v>
@@ -7136,10 +7175,10 @@
         <v>139</v>
       </c>
       <c r="N93" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="O93" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P93">
         <v>27</v>
@@ -7186,10 +7225,10 @@
         <v>140</v>
       </c>
       <c r="N94" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="O94" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P94">
         <v>27</v>
@@ -7236,10 +7275,10 @@
         <v>141</v>
       </c>
       <c r="N95" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="O95" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P95">
         <v>27</v>
@@ -7286,10 +7325,10 @@
         <v>142</v>
       </c>
       <c r="N96" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O96" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P96">
         <v>27</v>
@@ -7336,10 +7375,10 @@
         <v>143</v>
       </c>
       <c r="N97" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O97" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P97">
         <v>27</v>
@@ -7386,10 +7425,10 @@
         <v>144</v>
       </c>
       <c r="N98" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O98" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P98">
         <v>27</v>
@@ -7436,10 +7475,10 @@
         <v>145</v>
       </c>
       <c r="N99" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O99" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P99">
         <v>27</v>
@@ -7486,10 +7525,10 @@
         <v>146</v>
       </c>
       <c r="N100" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O100" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P100">
         <v>27</v>
@@ -7536,10 +7575,10 @@
         <v>147</v>
       </c>
       <c r="N101" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="O101" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P101">
         <v>27</v>
@@ -7586,10 +7625,10 @@
         <v>148</v>
       </c>
       <c r="N102" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="O102" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P102">
         <v>27</v>
@@ -7636,10 +7675,10 @@
         <v>149</v>
       </c>
       <c r="N103" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="O103" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P103">
         <v>27</v>
@@ -7686,10 +7725,10 @@
         <v>150</v>
       </c>
       <c r="N104" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O104" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P104">
         <v>27</v>
@@ -7736,10 +7775,10 @@
         <v>151</v>
       </c>
       <c r="N105" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O105" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P105">
         <v>27</v>
@@ -7786,10 +7825,10 @@
         <v>152</v>
       </c>
       <c r="N106" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O106" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P106">
         <v>27</v>
@@ -7836,10 +7875,10 @@
         <v>153</v>
       </c>
       <c r="N107" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O107" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P107">
         <v>27</v>
@@ -7886,10 +7925,10 @@
         <v>154</v>
       </c>
       <c r="N108" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O108" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P108">
         <v>27</v>
@@ -7936,10 +7975,10 @@
         <v>155</v>
       </c>
       <c r="N109" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O109" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P109">
         <v>27</v>
@@ -7986,10 +8025,10 @@
         <v>156</v>
       </c>
       <c r="N110" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O110" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P110">
         <v>27</v>
@@ -8036,10 +8075,10 @@
         <v>157</v>
       </c>
       <c r="N111" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O111" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P111">
         <v>27</v>
@@ -8086,10 +8125,10 @@
         <v>158</v>
       </c>
       <c r="N112" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="O112" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P112">
         <v>27</v>
@@ -8136,10 +8175,10 @@
         <v>159</v>
       </c>
       <c r="N113" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O113" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P113">
         <v>27</v>
@@ -8186,10 +8225,10 @@
         <v>160</v>
       </c>
       <c r="N114" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="O114" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P114">
         <v>27</v>
@@ -8236,10 +8275,10 @@
         <v>161</v>
       </c>
       <c r="N115" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O115" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P115">
         <v>27</v>
@@ -8286,10 +8325,10 @@
         <v>162</v>
       </c>
       <c r="N116" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="O116" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P116">
         <v>27</v>
@@ -8336,10 +8375,10 @@
         <v>163</v>
       </c>
       <c r="N117" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="O117" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P117">
         <v>27</v>
@@ -8386,10 +8425,10 @@
         <v>164</v>
       </c>
       <c r="N118" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O118" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P118">
         <v>27</v>
@@ -8436,10 +8475,10 @@
         <v>165</v>
       </c>
       <c r="N119" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="O119" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P119">
         <v>27</v>
@@ -8486,10 +8525,10 @@
         <v>166</v>
       </c>
       <c r="N120" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="O120" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P120">
         <v>27</v>
@@ -8536,10 +8575,10 @@
         <v>167</v>
       </c>
       <c r="N121" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="O121" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P121">
         <v>27</v>
@@ -8586,10 +8625,10 @@
         <v>168</v>
       </c>
       <c r="N122" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="O122" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P122">
         <v>27</v>
@@ -8636,10 +8675,10 @@
         <v>169</v>
       </c>
       <c r="N123" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O123" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P123">
         <v>27</v>
@@ -8686,10 +8725,10 @@
         <v>170</v>
       </c>
       <c r="N124" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O124" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P124">
         <v>27</v>
@@ -8736,10 +8775,10 @@
         <v>171</v>
       </c>
       <c r="N125" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="O125" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P125">
         <v>27</v>
@@ -8786,10 +8825,10 @@
         <v>172</v>
       </c>
       <c r="N126" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="O126" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P126">
         <v>27</v>
@@ -8836,10 +8875,10 @@
         <v>173</v>
       </c>
       <c r="N127" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="O127" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P127">
         <v>27</v>
@@ -8886,10 +8925,10 @@
         <v>174</v>
       </c>
       <c r="N128" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="O128" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P128">
         <v>27</v>
@@ -8936,10 +8975,10 @@
         <v>175</v>
       </c>
       <c r="N129" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="O129" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P129">
         <v>27</v>
@@ -8986,10 +9025,10 @@
         <v>176</v>
       </c>
       <c r="N130" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="O130" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P130">
         <v>26</v>
@@ -9036,10 +9075,10 @@
         <v>32</v>
       </c>
       <c r="N131" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O131" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P131">
         <v>26</v>
@@ -9086,10 +9125,10 @@
         <v>32</v>
       </c>
       <c r="N132" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="O132" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P132">
         <v>26</v>
@@ -9136,10 +9175,10 @@
         <v>177</v>
       </c>
       <c r="N133" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="O133" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P133">
         <v>26</v>
@@ -9186,10 +9225,10 @@
         <v>178</v>
       </c>
       <c r="N134" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="O134" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P134">
         <v>27</v>
@@ -9236,10 +9275,10 @@
         <v>179</v>
       </c>
       <c r="N135" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O135" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P135">
         <v>27</v>
@@ -9286,10 +9325,10 @@
         <v>180</v>
       </c>
       <c r="N136" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="O136" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P136">
         <v>26</v>
@@ -9336,10 +9375,10 @@
         <v>32</v>
       </c>
       <c r="N137" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="O137" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P137">
         <v>26</v>
@@ -9386,10 +9425,10 @@
         <v>181</v>
       </c>
       <c r="N138" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O138" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="P138">
         <v>26</v>
@@ -9436,10 +9475,10 @@
         <v>32</v>
       </c>
       <c r="N139" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="O139" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P139">
         <v>27</v>
@@ -9486,10 +9525,10 @@
         <v>116</v>
       </c>
       <c r="N140" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="O140" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P140">
         <v>27</v>
@@ -9536,10 +9575,10 @@
         <v>32</v>
       </c>
       <c r="N141" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O141" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P141">
         <v>27</v>
@@ -9586,10 +9625,10 @@
         <v>32</v>
       </c>
       <c r="N142" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="O142" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P142">
         <v>27</v>
@@ -9636,10 +9675,10 @@
         <v>96</v>
       </c>
       <c r="N143" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O143" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P143">
         <v>27</v>
@@ -9686,10 +9725,10 @@
         <v>114</v>
       </c>
       <c r="N144" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="O144" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P144">
         <v>27</v>
@@ -9736,10 +9775,10 @@
         <v>32</v>
       </c>
       <c r="N145" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="O145" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P145">
         <v>27</v>
@@ -9786,10 +9825,10 @@
         <v>32</v>
       </c>
       <c r="N146" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="O146" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P146">
         <v>27</v>
@@ -9836,10 +9875,10 @@
         <v>96</v>
       </c>
       <c r="N147" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="O147" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P147">
         <v>27</v>
@@ -9886,10 +9925,10 @@
         <v>96</v>
       </c>
       <c r="N148" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="O148" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P148">
         <v>27</v>
@@ -9936,10 +9975,10 @@
         <v>114</v>
       </c>
       <c r="N149" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="O149" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P149">
         <v>27</v>
@@ -9986,10 +10025,10 @@
         <v>182</v>
       </c>
       <c r="N150" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="O150" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P150">
         <v>27</v>
@@ -10036,10 +10075,10 @@
         <v>96</v>
       </c>
       <c r="N151" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="O151" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P151">
         <v>27</v>
@@ -10086,10 +10125,10 @@
         <v>96</v>
       </c>
       <c r="N152" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O152" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P152">
         <v>27</v>
@@ -10136,10 +10175,10 @@
         <v>32</v>
       </c>
       <c r="N153" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O153" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P153">
         <v>27</v>
@@ -10186,10 +10225,10 @@
         <v>32</v>
       </c>
       <c r="N154" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="O154" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P154">
         <v>27</v>
@@ -10236,10 +10275,10 @@
         <v>96</v>
       </c>
       <c r="N155" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="O155" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P155">
         <v>27</v>
@@ -10286,10 +10325,10 @@
         <v>32</v>
       </c>
       <c r="N156" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="O156" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P156">
         <v>27</v>
@@ -10336,10 +10375,10 @@
         <v>183</v>
       </c>
       <c r="N157" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="O157" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P157">
         <v>27</v>
@@ -10386,10 +10425,10 @@
         <v>184</v>
       </c>
       <c r="N158" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="O158" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P158">
         <v>27</v>
@@ -10436,10 +10475,10 @@
         <v>32</v>
       </c>
       <c r="N159" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="O159" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P159">
         <v>22</v>
@@ -10486,10 +10525,10 @@
         <v>32</v>
       </c>
       <c r="N160" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="O160" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P160">
         <v>22</v>
@@ -10536,10 +10575,10 @@
         <v>32</v>
       </c>
       <c r="N161" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O161" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P161">
         <v>22</v>
@@ -10586,10 +10625,10 @@
         <v>32</v>
       </c>
       <c r="N162" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="O162" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P162">
         <v>22</v>
@@ -10636,10 +10675,10 @@
         <v>32</v>
       </c>
       <c r="N163" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="O163" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P163">
         <v>22</v>
@@ -10686,10 +10725,10 @@
         <v>32</v>
       </c>
       <c r="N164" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="O164" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P164">
         <v>22</v>
@@ -10736,10 +10775,10 @@
         <v>32</v>
       </c>
       <c r="N165" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="O165" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P165">
         <v>22</v>
@@ -10786,10 +10825,10 @@
         <v>32</v>
       </c>
       <c r="N166" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="O166" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P166">
         <v>22</v>
@@ -10836,10 +10875,10 @@
         <v>32</v>
       </c>
       <c r="N167" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="O167" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P167">
         <v>22</v>
@@ -10886,10 +10925,10 @@
         <v>32</v>
       </c>
       <c r="N168" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O168" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P168">
         <v>22</v>
@@ -10936,10 +10975,10 @@
         <v>32</v>
       </c>
       <c r="N169" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="O169" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P169">
         <v>23</v>
@@ -10986,10 +11025,10 @@
         <v>32</v>
       </c>
       <c r="N170" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="O170" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P170">
         <v>23</v>
@@ -11036,10 +11075,10 @@
         <v>32</v>
       </c>
       <c r="N171" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="O171" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P171">
         <v>23</v>
@@ -11086,10 +11125,10 @@
         <v>32</v>
       </c>
       <c r="N172" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="O172" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P172">
         <v>23</v>
@@ -11136,10 +11175,10 @@
         <v>32</v>
       </c>
       <c r="N173" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="O173" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="P173">
         <v>23</v>
@@ -11186,10 +11225,10 @@
         <v>185</v>
       </c>
       <c r="N174" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O174" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P174">
         <v>27</v>
@@ -11236,10 +11275,10 @@
         <v>32</v>
       </c>
       <c r="N175" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="O175" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P175">
         <v>27</v>
@@ -11286,10 +11325,10 @@
         <v>96</v>
       </c>
       <c r="N176" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O176" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P176">
         <v>27</v>
@@ -11336,10 +11375,10 @@
         <v>96</v>
       </c>
       <c r="N177" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="O177" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P177">
         <v>27</v>
@@ -11386,10 +11425,10 @@
         <v>32</v>
       </c>
       <c r="N178" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="O178" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="P178">
         <v>27</v>
@@ -11436,10 +11475,10 @@
         <v>32</v>
       </c>
       <c r="N179" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="O179" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P179">
         <v>22</v>
@@ -11486,10 +11525,10 @@
         <v>32</v>
       </c>
       <c r="N180" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="O180" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P180">
         <v>22</v>
@@ -11536,10 +11575,10 @@
         <v>32</v>
       </c>
       <c r="N181" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="O181" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P181">
         <v>22</v>
@@ -11586,10 +11625,10 @@
         <v>32</v>
       </c>
       <c r="N182" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="O182" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P182">
         <v>22</v>
@@ -11636,10 +11675,10 @@
         <v>32</v>
       </c>
       <c r="N183" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="O183" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="P183">
         <v>22</v>
@@ -11686,10 +11725,10 @@
         <v>98</v>
       </c>
       <c r="N184" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="O184" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P184">
         <v>21</v>
@@ -11736,10 +11775,10 @@
         <v>93</v>
       </c>
       <c r="N185" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="O185" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P185">
         <v>21</v>
@@ -11786,10 +11825,10 @@
         <v>32</v>
       </c>
       <c r="N186" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="O186" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P186">
         <v>32</v>
@@ -11836,10 +11875,10 @@
         <v>32</v>
       </c>
       <c r="N187" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="O187" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P187">
         <v>32</v>
@@ -11886,10 +11925,10 @@
         <v>32</v>
       </c>
       <c r="N188" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="O188" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P188">
         <v>32</v>
@@ -11936,10 +11975,10 @@
         <v>32</v>
       </c>
       <c r="N189" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="O189" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P189">
         <v>32</v>
@@ -11986,10 +12025,10 @@
         <v>32</v>
       </c>
       <c r="N190" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="O190" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P190">
         <v>32</v>
@@ -12036,10 +12075,10 @@
         <v>32</v>
       </c>
       <c r="N191" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="O191" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P191">
         <v>32</v>
@@ -12086,10 +12125,10 @@
         <v>32</v>
       </c>
       <c r="N192" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="O192" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P192">
         <v>32</v>
@@ -12136,10 +12175,10 @@
         <v>32</v>
       </c>
       <c r="N193" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="O193" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P193">
         <v>32</v>
@@ -12186,10 +12225,10 @@
         <v>32</v>
       </c>
       <c r="N194" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="O194" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P194">
         <v>32</v>
@@ -12236,10 +12275,10 @@
         <v>32</v>
       </c>
       <c r="N195" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="O195" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P195">
         <v>32</v>
@@ -12286,10 +12325,10 @@
         <v>32</v>
       </c>
       <c r="N196" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="O196" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P196">
         <v>32</v>
@@ -12336,10 +12375,10 @@
         <v>32</v>
       </c>
       <c r="N197" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="O197" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P197">
         <v>32</v>
@@ -12386,10 +12425,10 @@
         <v>32</v>
       </c>
       <c r="N198" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="O198" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P198">
         <v>32</v>
@@ -12436,10 +12475,10 @@
         <v>32</v>
       </c>
       <c r="N199" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="O199" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P199">
         <v>32</v>
@@ -12486,10 +12525,10 @@
         <v>32</v>
       </c>
       <c r="N200" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="O200" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P200">
         <v>32</v>
@@ -12536,10 +12575,10 @@
         <v>32</v>
       </c>
       <c r="N201" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="O201" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P201">
         <v>32</v>
@@ -12586,10 +12625,10 @@
         <v>32</v>
       </c>
       <c r="N202" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="O202" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P202">
         <v>32</v>
@@ -12636,10 +12675,10 @@
         <v>32</v>
       </c>
       <c r="N203" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="O203" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P203">
         <v>32</v>
@@ -12686,10 +12725,10 @@
         <v>32</v>
       </c>
       <c r="N204" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="O204" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P204">
         <v>32</v>
@@ -12736,10 +12775,10 @@
         <v>32</v>
       </c>
       <c r="N205" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="O205" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P205">
         <v>32</v>
@@ -12786,10 +12825,10 @@
         <v>32</v>
       </c>
       <c r="N206" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="O206" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P206">
         <v>32</v>
@@ -12836,10 +12875,10 @@
         <v>32</v>
       </c>
       <c r="N207" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="O207" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P207">
         <v>32</v>
@@ -12886,10 +12925,10 @@
         <v>32</v>
       </c>
       <c r="N208" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="O208" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P208">
         <v>32</v>
@@ -12936,10 +12975,10 @@
         <v>32</v>
       </c>
       <c r="N209" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O209" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P209">
         <v>32</v>
@@ -12986,10 +13025,10 @@
         <v>32</v>
       </c>
       <c r="N210" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="O210" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P210">
         <v>32</v>
@@ -13036,10 +13075,10 @@
         <v>32</v>
       </c>
       <c r="N211" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="O211" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P211">
         <v>32</v>
@@ -13086,10 +13125,10 @@
         <v>32</v>
       </c>
       <c r="N212" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O212" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P212">
         <v>32</v>
@@ -13136,10 +13175,10 @@
         <v>32</v>
       </c>
       <c r="N213" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="O213" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P213">
         <v>32</v>
@@ -13186,10 +13225,10 @@
         <v>32</v>
       </c>
       <c r="N214" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="O214" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P214">
         <v>32</v>
@@ -13236,10 +13275,10 @@
         <v>32</v>
       </c>
       <c r="N215" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="O215" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P215">
         <v>32</v>
@@ -13286,10 +13325,10 @@
         <v>32</v>
       </c>
       <c r="N216" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="O216" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P216">
         <v>32</v>
@@ -13336,10 +13375,10 @@
         <v>32</v>
       </c>
       <c r="N217" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="O217" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P217">
         <v>32</v>
@@ -13386,10 +13425,10 @@
         <v>32</v>
       </c>
       <c r="N218" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="O218" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P218">
         <v>32</v>
@@ -13436,10 +13475,10 @@
         <v>32</v>
       </c>
       <c r="N219" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="O219" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P219">
         <v>32</v>
@@ -13486,10 +13525,10 @@
         <v>32</v>
       </c>
       <c r="N220" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="O220" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P220">
         <v>32</v>
@@ -13536,10 +13575,10 @@
         <v>32</v>
       </c>
       <c r="N221" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="O221" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P221">
         <v>32</v>
@@ -13586,10 +13625,10 @@
         <v>32</v>
       </c>
       <c r="N222" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="O222" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P222">
         <v>32</v>
@@ -13636,10 +13675,10 @@
         <v>32</v>
       </c>
       <c r="N223" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="O223" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P223">
         <v>32</v>
@@ -13686,10 +13725,10 @@
         <v>32</v>
       </c>
       <c r="N224" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="O224" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P224">
         <v>32</v>
@@ -13736,10 +13775,10 @@
         <v>32</v>
       </c>
       <c r="N225" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="O225" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P225">
         <v>32</v>
@@ -13786,10 +13825,10 @@
         <v>32</v>
       </c>
       <c r="N226" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="O226" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P226">
         <v>32</v>
@@ -13836,10 +13875,10 @@
         <v>32</v>
       </c>
       <c r="N227" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="O227" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P227">
         <v>32</v>
@@ -13886,10 +13925,10 @@
         <v>32</v>
       </c>
       <c r="N228" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="O228" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P228">
         <v>32</v>
@@ -13936,10 +13975,10 @@
         <v>32</v>
       </c>
       <c r="N229" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="O229" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P229">
         <v>32</v>
@@ -13986,10 +14025,10 @@
         <v>32</v>
       </c>
       <c r="N230" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="O230" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P230">
         <v>32</v>
@@ -14036,10 +14075,10 @@
         <v>32</v>
       </c>
       <c r="N231" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="O231" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P231">
         <v>32</v>
@@ -14086,10 +14125,10 @@
         <v>32</v>
       </c>
       <c r="N232" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="O232" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P232">
         <v>32</v>
@@ -14136,10 +14175,10 @@
         <v>32</v>
       </c>
       <c r="N233" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="O233" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P233">
         <v>32</v>
@@ -14186,10 +14225,10 @@
         <v>32</v>
       </c>
       <c r="N234" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="O234" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P234">
         <v>32</v>
@@ -14236,10 +14275,10 @@
         <v>32</v>
       </c>
       <c r="N235" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="O235" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P235">
         <v>32</v>
@@ -14286,10 +14325,10 @@
         <v>32</v>
       </c>
       <c r="N236" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="O236" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P236">
         <v>32</v>
@@ -14336,10 +14375,10 @@
         <v>32</v>
       </c>
       <c r="N237" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="O237" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P237">
         <v>32</v>
@@ -14386,10 +14425,10 @@
         <v>32</v>
       </c>
       <c r="N238" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O238" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P238">
         <v>32</v>
@@ -14436,10 +14475,10 @@
         <v>32</v>
       </c>
       <c r="N239" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="O239" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P239">
         <v>32</v>
@@ -14486,10 +14525,10 @@
         <v>32</v>
       </c>
       <c r="N240" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="O240" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P240">
         <v>32</v>
@@ -14536,10 +14575,10 @@
         <v>32</v>
       </c>
       <c r="N241" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="O241" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P241">
         <v>32</v>
@@ -14586,10 +14625,10 @@
         <v>32</v>
       </c>
       <c r="N242" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="O242" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P242">
         <v>32</v>
@@ -14636,10 +14675,10 @@
         <v>32</v>
       </c>
       <c r="N243" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="O243" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P243">
         <v>32</v>
@@ -14686,10 +14725,10 @@
         <v>32</v>
       </c>
       <c r="N244" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="O244" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P244">
         <v>32</v>
@@ -14736,10 +14775,10 @@
         <v>32</v>
       </c>
       <c r="N245" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="O245" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P245">
         <v>32</v>
@@ -14786,10 +14825,10 @@
         <v>32</v>
       </c>
       <c r="N246" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="O246" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P246">
         <v>33</v>
@@ -14836,10 +14875,10 @@
         <v>32</v>
       </c>
       <c r="N247" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="O247" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P247">
         <v>33</v>
@@ -14886,10 +14925,10 @@
         <v>32</v>
       </c>
       <c r="N248" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="O248" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P248">
         <v>33</v>
@@ -14936,10 +14975,10 @@
         <v>32</v>
       </c>
       <c r="N249" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="O249" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P249">
         <v>33</v>
@@ -14986,10 +15025,10 @@
         <v>32</v>
       </c>
       <c r="N250" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="O250" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P250">
         <v>33</v>
@@ -15036,10 +15075,10 @@
         <v>32</v>
       </c>
       <c r="N251" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="O251" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P251">
         <v>33</v>
@@ -15086,10 +15125,10 @@
         <v>32</v>
       </c>
       <c r="N252" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="O252" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P252">
         <v>33</v>
@@ -15136,10 +15175,10 @@
         <v>32</v>
       </c>
       <c r="N253" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="O253" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P253">
         <v>33</v>
@@ -15186,10 +15225,10 @@
         <v>32</v>
       </c>
       <c r="N254" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="O254" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P254">
         <v>33</v>
@@ -15236,10 +15275,10 @@
         <v>32</v>
       </c>
       <c r="N255" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="O255" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P255">
         <v>33</v>
@@ -15286,10 +15325,10 @@
         <v>32</v>
       </c>
       <c r="N256" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="O256" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P256">
         <v>33</v>
@@ -15336,10 +15375,10 @@
         <v>32</v>
       </c>
       <c r="N257" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="O257" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P257">
         <v>33</v>
@@ -15386,10 +15425,10 @@
         <v>32</v>
       </c>
       <c r="N258" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O258" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P258">
         <v>33</v>
@@ -15436,10 +15475,10 @@
         <v>32</v>
       </c>
       <c r="N259" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="O259" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P259">
         <v>33</v>
@@ -15486,10 +15525,10 @@
         <v>32</v>
       </c>
       <c r="N260" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="O260" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P260">
         <v>33</v>
@@ -15536,10 +15575,10 @@
         <v>32</v>
       </c>
       <c r="N261" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="O261" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P261">
         <v>33</v>
@@ -15586,10 +15625,10 @@
         <v>32</v>
       </c>
       <c r="N262" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="O262" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P262">
         <v>33</v>
@@ -15636,10 +15675,10 @@
         <v>32</v>
       </c>
       <c r="N263" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="O263" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P263">
         <v>33</v>
@@ -15686,10 +15725,10 @@
         <v>32</v>
       </c>
       <c r="N264" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="O264" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P264">
         <v>33</v>
@@ -15736,10 +15775,10 @@
         <v>32</v>
       </c>
       <c r="N265" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="O265" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P265">
         <v>33</v>
@@ -15786,10 +15825,10 @@
         <v>32</v>
       </c>
       <c r="N266" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="O266" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P266">
         <v>33</v>
@@ -15836,10 +15875,10 @@
         <v>32</v>
       </c>
       <c r="N267" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="O267" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P267">
         <v>33</v>
@@ -15886,10 +15925,10 @@
         <v>32</v>
       </c>
       <c r="N268" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O268" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P268">
         <v>33</v>
@@ -15936,10 +15975,10 @@
         <v>32</v>
       </c>
       <c r="N269" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="O269" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P269">
         <v>33</v>
@@ -15986,10 +16025,10 @@
         <v>32</v>
       </c>
       <c r="N270" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="O270" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P270">
         <v>33</v>
@@ -16036,10 +16075,10 @@
         <v>32</v>
       </c>
       <c r="N271" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="O271" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P271">
         <v>33</v>
@@ -16086,10 +16125,10 @@
         <v>32</v>
       </c>
       <c r="N272" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="O272" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P272">
         <v>33</v>
@@ -16136,10 +16175,10 @@
         <v>32</v>
       </c>
       <c r="N273" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="O273" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P273">
         <v>33</v>
@@ -16186,10 +16225,10 @@
         <v>32</v>
       </c>
       <c r="N274" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="O274" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P274">
         <v>33</v>
@@ -16236,10 +16275,10 @@
         <v>32</v>
       </c>
       <c r="N275" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O275" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P275">
         <v>33</v>
@@ -16286,10 +16325,10 @@
         <v>32</v>
       </c>
       <c r="N276" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O276" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P276">
         <v>34</v>
@@ -16336,10 +16375,10 @@
         <v>32</v>
       </c>
       <c r="N277" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="O277" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P277">
         <v>34</v>
@@ -16386,10 +16425,10 @@
         <v>32</v>
       </c>
       <c r="N278" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="O278" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P278">
         <v>34</v>
@@ -16436,10 +16475,10 @@
         <v>32</v>
       </c>
       <c r="N279" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="O279" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P279">
         <v>34</v>
@@ -16486,10 +16525,10 @@
         <v>32</v>
       </c>
       <c r="N280" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="O280" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P280">
         <v>34</v>
@@ -16536,10 +16575,10 @@
         <v>32</v>
       </c>
       <c r="N281" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="O281" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P281">
         <v>35</v>
@@ -16586,10 +16625,10 @@
         <v>32</v>
       </c>
       <c r="N282" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="O282" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P282">
         <v>35</v>
@@ -16636,10 +16675,10 @@
         <v>186</v>
       </c>
       <c r="N283" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="O283" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P283">
         <v>35</v>
@@ -16686,10 +16725,10 @@
         <v>32</v>
       </c>
       <c r="N284" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="O284" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P284">
         <v>35</v>
@@ -16736,10 +16775,10 @@
         <v>32</v>
       </c>
       <c r="N285" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="O285" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P285">
         <v>35</v>
@@ -16786,10 +16825,10 @@
         <v>32</v>
       </c>
       <c r="N286" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="O286" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P286">
         <v>36</v>
@@ -16836,10 +16875,10 @@
         <v>187</v>
       </c>
       <c r="N287" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="O287" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P287">
         <v>34</v>
@@ -16886,10 +16925,10 @@
         <v>188</v>
       </c>
       <c r="N288" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="O288" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P288">
         <v>34</v>
@@ -16936,10 +16975,10 @@
         <v>32</v>
       </c>
       <c r="N289" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="O289" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P289">
         <v>34</v>
@@ -16986,10 +17025,10 @@
         <v>32</v>
       </c>
       <c r="N290" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="O290" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P290">
         <v>34</v>
@@ -17036,10 +17075,10 @@
         <v>189</v>
       </c>
       <c r="N291" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="O291" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P291">
         <v>34</v>
@@ -17086,10 +17125,10 @@
         <v>32</v>
       </c>
       <c r="N292" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="O292" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P292">
         <v>35</v>
@@ -17136,10 +17175,10 @@
         <v>190</v>
       </c>
       <c r="N293" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="O293" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P293">
         <v>35</v>
@@ -17186,10 +17225,10 @@
         <v>32</v>
       </c>
       <c r="N294" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="O294" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P294">
         <v>35</v>
@@ -17236,10 +17275,10 @@
         <v>32</v>
       </c>
       <c r="N295" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="O295" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P295">
         <v>35</v>
@@ -17286,10 +17325,10 @@
         <v>32</v>
       </c>
       <c r="N296" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="O296" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="P296">
         <v>35</v>
@@ -17336,10 +17375,10 @@
         <v>189</v>
       </c>
       <c r="N297" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="O297" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P297">
         <v>36</v>
@@ -17386,10 +17425,10 @@
         <v>32</v>
       </c>
       <c r="N298" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="O298" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P298">
         <v>36</v>
@@ -17436,10 +17475,10 @@
         <v>180</v>
       </c>
       <c r="N299" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="O299" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P299">
         <v>36</v>
@@ -17486,10 +17525,10 @@
         <v>32</v>
       </c>
       <c r="N300" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="O300" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P300">
         <v>36</v>
@@ -17536,10 +17575,10 @@
         <v>189</v>
       </c>
       <c r="N301" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="O301" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="P301">
         <v>36</v>
@@ -17586,10 +17625,10 @@
         <v>191</v>
       </c>
       <c r="N302" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="O302" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="P302">
         <v>37</v>
@@ -17636,10 +17675,10 @@
         <v>192</v>
       </c>
       <c r="N303" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="O303" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="P303">
         <v>37</v>
@@ -17686,10 +17725,10 @@
         <v>193</v>
       </c>
       <c r="N304" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="O304" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="P304">
         <v>37</v>
@@ -17736,10 +17775,10 @@
         <v>194</v>
       </c>
       <c r="N305" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="O305" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="P305">
         <v>37</v>
@@ -17786,10 +17825,10 @@
         <v>195</v>
       </c>
       <c r="N306" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="O306" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="P306">
         <v>37</v>
@@ -17836,10 +17875,10 @@
         <v>196</v>
       </c>
       <c r="N307" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="O307" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P307">
         <v>34</v>
@@ -17886,10 +17925,10 @@
         <v>197</v>
       </c>
       <c r="N308" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="O308" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P308">
         <v>34</v>
@@ -17936,10 +17975,10 @@
         <v>198</v>
       </c>
       <c r="N309" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="O309" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P309">
         <v>34</v>
@@ -17986,10 +18025,10 @@
         <v>32</v>
       </c>
       <c r="N310" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="O310" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P310">
         <v>34</v>
@@ -18036,10 +18075,10 @@
         <v>32</v>
       </c>
       <c r="N311" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="O311" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="P311">
         <v>34</v>
@@ -18086,10 +18125,10 @@
         <v>32</v>
       </c>
       <c r="N312" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="O312" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="P312">
         <v>35</v>
@@ -18136,10 +18175,10 @@
         <v>32</v>
       </c>
       <c r="N313" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="O313" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="P313">
         <v>35</v>
@@ -18186,10 +18225,10 @@
         <v>32</v>
       </c>
       <c r="N314" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="O314" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="P314">
         <v>35</v>
@@ -18236,10 +18275,10 @@
         <v>32</v>
       </c>
       <c r="N315" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="O315" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="P315">
         <v>35</v>
@@ -18286,10 +18325,10 @@
         <v>199</v>
       </c>
       <c r="N316" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="O316" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="P316">
         <v>35</v>
@@ -18336,10 +18375,10 @@
         <v>32</v>
       </c>
       <c r="N317" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="O317" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P317">
         <v>36</v>
@@ -18386,10 +18425,10 @@
         <v>32</v>
       </c>
       <c r="N318" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="O318" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P318">
         <v>36</v>
@@ -18436,10 +18475,10 @@
         <v>170</v>
       </c>
       <c r="N319" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="O319" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P319">
         <v>36</v>
@@ -18486,10 +18525,10 @@
         <v>32</v>
       </c>
       <c r="N320" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="O320" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P320">
         <v>36</v>
@@ -18536,10 +18575,10 @@
         <v>32</v>
       </c>
       <c r="N321" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O321" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P321">
         <v>36</v>
@@ -18586,10 +18625,10 @@
         <v>32</v>
       </c>
       <c r="N322" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="O322" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P322">
         <v>37</v>
@@ -18636,10 +18675,10 @@
         <v>32</v>
       </c>
       <c r="N323" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="O323" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P323">
         <v>37</v>
@@ -18686,10 +18725,10 @@
         <v>196</v>
       </c>
       <c r="N324" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="O324" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P324">
         <v>37</v>
@@ -18736,10 +18775,10 @@
         <v>32</v>
       </c>
       <c r="N325" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="O325" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P325">
         <v>37</v>
@@ -18786,10 +18825,10 @@
         <v>32</v>
       </c>
       <c r="N326" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="O326" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="P326">
         <v>37</v>
@@ -18836,10 +18875,10 @@
         <v>200</v>
       </c>
       <c r="N327" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="O327" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P327">
         <v>33</v>
@@ -18886,10 +18925,10 @@
         <v>201</v>
       </c>
       <c r="N328" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="O328" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P328">
         <v>33</v>
@@ -18936,10 +18975,10 @@
         <v>202</v>
       </c>
       <c r="N329" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="O329" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P329">
         <v>33</v>
@@ -18986,10 +19025,10 @@
         <v>203</v>
       </c>
       <c r="N330" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="O330" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P330">
         <v>33</v>
@@ -19036,10 +19075,10 @@
         <v>204</v>
       </c>
       <c r="N331" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="O331" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P331">
         <v>33</v>
@@ -19086,10 +19125,10 @@
         <v>205</v>
       </c>
       <c r="N332" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="O332" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P332">
         <v>33</v>
@@ -19136,10 +19175,10 @@
         <v>206</v>
       </c>
       <c r="N333" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="O333" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P333">
         <v>33</v>
@@ -19186,10 +19225,10 @@
         <v>207</v>
       </c>
       <c r="N334" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="O334" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P334">
         <v>33</v>
@@ -19236,10 +19275,10 @@
         <v>208</v>
       </c>
       <c r="N335" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="O335" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P335">
         <v>33</v>
@@ -19286,10 +19325,10 @@
         <v>209</v>
       </c>
       <c r="N336" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="O336" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P336">
         <v>33</v>
@@ -19336,10 +19375,10 @@
         <v>210</v>
       </c>
       <c r="N337" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="O337" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P337">
         <v>33</v>
@@ -19386,10 +19425,10 @@
         <v>211</v>
       </c>
       <c r="N338" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="O338" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P338">
         <v>33</v>
@@ -19436,10 +19475,10 @@
         <v>212</v>
       </c>
       <c r="N339" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="O339" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P339">
         <v>33</v>
@@ -19486,10 +19525,10 @@
         <v>213</v>
       </c>
       <c r="N340" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="O340" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P340">
         <v>33</v>
@@ -19536,10 +19575,10 @@
         <v>214</v>
       </c>
       <c r="N341" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="O341" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P341">
         <v>33</v>
@@ -19586,10 +19625,10 @@
         <v>215</v>
       </c>
       <c r="N342" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="O342" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="P342">
         <v>22</v>
@@ -19636,10 +19675,10 @@
         <v>216</v>
       </c>
       <c r="N343" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="O343" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="P343">
         <v>21</v>
@@ -19686,10 +19725,10 @@
         <v>217</v>
       </c>
       <c r="N344" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="O344" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="P344">
         <v>21</v>
@@ -19736,10 +19775,10 @@
         <v>218</v>
       </c>
       <c r="N345" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="O345" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="P345">
         <v>21</v>
@@ -19786,10 +19825,10 @@
         <v>219</v>
       </c>
       <c r="N346" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="O346" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P346">
         <v>24</v>
@@ -19836,10 +19875,10 @@
         <v>220</v>
       </c>
       <c r="N347" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="O347" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P347">
         <v>24</v>
@@ -19886,10 +19925,10 @@
         <v>221</v>
       </c>
       <c r="N348" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="O348" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P348">
         <v>24</v>
@@ -19936,10 +19975,10 @@
         <v>222</v>
       </c>
       <c r="N349" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="O349" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P349">
         <v>24</v>
@@ -19986,10 +20025,10 @@
         <v>223</v>
       </c>
       <c r="N350" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="O350" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P350">
         <v>24</v>
@@ -20036,10 +20075,10 @@
         <v>224</v>
       </c>
       <c r="N351" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="O351" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P351">
         <v>24</v>
@@ -20086,10 +20125,10 @@
         <v>225</v>
       </c>
       <c r="N352" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="O352" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P352">
         <v>24</v>
@@ -20136,10 +20175,10 @@
         <v>226</v>
       </c>
       <c r="N353" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="O353" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P353">
         <v>24</v>
@@ -20186,10 +20225,10 @@
         <v>227</v>
       </c>
       <c r="N354" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="O354" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P354">
         <v>24</v>
@@ -20236,10 +20275,10 @@
         <v>228</v>
       </c>
       <c r="N355" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O355" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P355">
         <v>24</v>
@@ -20286,10 +20325,10 @@
         <v>229</v>
       </c>
       <c r="N356" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="O356" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P356">
         <v>24</v>
@@ -20336,10 +20375,10 @@
         <v>230</v>
       </c>
       <c r="N357" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O357" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P357">
         <v>24</v>
@@ -20386,10 +20425,10 @@
         <v>231</v>
       </c>
       <c r="N358" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="O358" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P358">
         <v>24</v>
@@ -20436,10 +20475,10 @@
         <v>232</v>
       </c>
       <c r="N359" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="O359" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P359">
         <v>24</v>
@@ -20486,10 +20525,10 @@
         <v>233</v>
       </c>
       <c r="N360" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="O360" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P360">
         <v>24</v>
@@ -20536,10 +20575,10 @@
         <v>234</v>
       </c>
       <c r="N361" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="O361" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P361">
         <v>24</v>
@@ -20586,10 +20625,10 @@
         <v>235</v>
       </c>
       <c r="N362" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="O362" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P362">
         <v>24</v>
@@ -20636,10 +20675,10 @@
         <v>236</v>
       </c>
       <c r="N363" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="O363" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P363">
         <v>24</v>
@@ -20686,10 +20725,10 @@
         <v>237</v>
       </c>
       <c r="N364" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="O364" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P364">
         <v>24</v>
@@ -20736,10 +20775,10 @@
         <v>238</v>
       </c>
       <c r="N365" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="O365" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P365">
         <v>24</v>
@@ -20786,10 +20825,10 @@
         <v>239</v>
       </c>
       <c r="N366" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="O366" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P366">
         <v>24</v>
@@ -20836,10 +20875,10 @@
         <v>240</v>
       </c>
       <c r="N367" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="O367" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P367">
         <v>24</v>
@@ -20886,10 +20925,10 @@
         <v>241</v>
       </c>
       <c r="N368" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="O368" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P368">
         <v>24</v>
@@ -20936,10 +20975,10 @@
         <v>242</v>
       </c>
       <c r="N369" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="O369" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P369">
         <v>24</v>
@@ -20986,10 +21025,10 @@
         <v>243</v>
       </c>
       <c r="N370" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="O370" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P370">
         <v>24</v>
@@ -21036,10 +21075,10 @@
         <v>244</v>
       </c>
       <c r="N371" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="O371" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P371">
         <v>24</v>
@@ -21086,10 +21125,10 @@
         <v>245</v>
       </c>
       <c r="N372" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="O372" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P372">
         <v>24</v>
@@ -21136,10 +21175,10 @@
         <v>246</v>
       </c>
       <c r="N373" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="O373" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P373">
         <v>24</v>
@@ -21186,10 +21225,10 @@
         <v>247</v>
       </c>
       <c r="N374" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="O374" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P374">
         <v>24</v>
@@ -21236,10 +21275,10 @@
         <v>248</v>
       </c>
       <c r="N375" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="O375" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="P375">
         <v>24</v>
@@ -21286,10 +21325,10 @@
         <v>32</v>
       </c>
       <c r="N376" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="O376" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="P376">
         <v>21</v>
@@ -21336,10 +21375,10 @@
         <v>249</v>
       </c>
       <c r="N377" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="O377" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="P377">
         <v>21</v>
@@ -21386,10 +21425,10 @@
         <v>32</v>
       </c>
       <c r="N378" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="O378" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="P378">
         <v>21</v>
@@ -21436,10 +21475,10 @@
         <v>250</v>
       </c>
       <c r="N379" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="O379" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P379">
         <v>32</v>
@@ -21486,10 +21525,10 @@
         <v>251</v>
       </c>
       <c r="N380" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="O380" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P380">
         <v>36</v>
@@ -21536,10 +21575,10 @@
         <v>32</v>
       </c>
       <c r="N381" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O381" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="P381">
         <v>38</v>
@@ -21586,10 +21625,10 @@
         <v>32</v>
       </c>
       <c r="N382" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="O382" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P382">
         <v>39</v>
@@ -21636,10 +21675,10 @@
         <v>32</v>
       </c>
       <c r="N383" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="O383" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="P383">
         <v>40</v>
@@ -21686,10 +21725,10 @@
         <v>32</v>
       </c>
       <c r="N384" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="O384" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="P384">
         <v>38</v>
@@ -21736,10 +21775,10 @@
         <v>32</v>
       </c>
       <c r="N385" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="O385" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P385">
         <v>39</v>
@@ -21786,10 +21825,10 @@
         <v>32</v>
       </c>
       <c r="N386" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="O386" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="P386">
         <v>40</v>
@@ -21836,10 +21875,10 @@
         <v>252</v>
       </c>
       <c r="N387" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="O387" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="P387">
         <v>39</v>
@@ -21886,10 +21925,10 @@
         <v>32</v>
       </c>
       <c r="N388" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O388" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P388">
         <v>33</v>
@@ -21936,10 +21975,10 @@
         <v>253</v>
       </c>
       <c r="N389" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="O389" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P389">
         <v>33</v>
@@ -21986,10 +22025,10 @@
         <v>184</v>
       </c>
       <c r="N390" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="O390" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="P390">
         <v>33</v>
@@ -22036,10 +22075,10 @@
         <v>113</v>
       </c>
       <c r="N391" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="O391" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P391">
         <v>33</v>
@@ -22086,10 +22125,10 @@
         <v>32</v>
       </c>
       <c r="N392" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="O392" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P392">
         <v>33</v>
@@ -22136,10 +22175,10 @@
         <v>32</v>
       </c>
       <c r="N393" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="O393" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P393">
         <v>33</v>
@@ -22186,10 +22225,10 @@
         <v>32</v>
       </c>
       <c r="N394" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="O394" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P394">
         <v>33</v>
@@ -22236,10 +22275,10 @@
         <v>32</v>
       </c>
       <c r="N395" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="O395" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="P395">
         <v>33</v>
@@ -22286,10 +22325,10 @@
         <v>254</v>
       </c>
       <c r="N396" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="O396" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="P396">
         <v>40</v>
@@ -22336,10 +22375,10 @@
         <v>96</v>
       </c>
       <c r="N397" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="O397" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="P397">
         <v>33</v>
@@ -22386,10 +22425,10 @@
         <v>32</v>
       </c>
       <c r="N398" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="O398" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="P398">
         <v>33</v>
@@ -22436,10 +22475,10 @@
         <v>255</v>
       </c>
       <c r="N399" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="O399" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="P399">
         <v>40</v>
@@ -22486,10 +22525,10 @@
         <v>93</v>
       </c>
       <c r="N400" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="O400" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="P400">
         <v>40</v>
@@ -22536,10 +22575,10 @@
         <v>256</v>
       </c>
       <c r="N401" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="O401" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="P401">
         <v>37</v>
@@ -22586,10 +22625,10 @@
         <v>257</v>
       </c>
       <c r="N402" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O402" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="P402">
         <v>40</v>
@@ -22636,10 +22675,10 @@
         <v>258</v>
       </c>
       <c r="N403" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="O403" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P403">
         <v>26</v>
@@ -22686,10 +22725,10 @@
         <v>32</v>
       </c>
       <c r="N404" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="O404" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P404">
         <v>26</v>
@@ -22736,10 +22775,10 @@
         <v>32</v>
       </c>
       <c r="N405" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="O405" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P405">
         <v>26</v>
@@ -22786,10 +22825,10 @@
         <v>32</v>
       </c>
       <c r="N406" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="O406" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P406">
         <v>26</v>
@@ -22836,10 +22875,10 @@
         <v>32</v>
       </c>
       <c r="N407" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="O407" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P407">
         <v>26</v>
@@ -22886,10 +22925,10 @@
         <v>32</v>
       </c>
       <c r="N408" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="O408" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="P408">
         <v>26</v>
@@ -22936,10 +22975,10 @@
         <v>32</v>
       </c>
       <c r="N409" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="O409" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="P409">
         <v>33</v>
@@ -22986,10 +23025,10 @@
         <v>32</v>
       </c>
       <c r="N410" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="O410" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="P410">
         <v>33</v>
@@ -23036,13 +23075,413 @@
         <v>32</v>
       </c>
       <c r="N411" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="O411" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="P411">
         <v>33</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>4</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1062</v>
+      </c>
+      <c r="E412">
+        <v>58</v>
+      </c>
+      <c r="F412">
+        <v>2</v>
+      </c>
+      <c r="G412">
+        <v>21.24</v>
+      </c>
+      <c r="H412">
+        <v>2</v>
+      </c>
+      <c r="I412">
+        <v>32</v>
+      </c>
+      <c r="J412">
+        <v>20.68669128417969</v>
+      </c>
+      <c r="K412">
+        <v>1.77</v>
+      </c>
+      <c r="L412" t="s">
+        <v>32</v>
+      </c>
+      <c r="M412" t="s">
+        <v>32</v>
+      </c>
+      <c r="N412" t="s">
+        <v>674</v>
+      </c>
+      <c r="O412" t="s">
+        <v>717</v>
+      </c>
+      <c r="P412">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>391</v>
+      </c>
+      <c r="E413">
+        <v>30</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>13.03333333333333</v>
+      </c>
+      <c r="H413">
+        <v>11</v>
+      </c>
+      <c r="I413">
+        <v>16</v>
+      </c>
+      <c r="J413">
+        <v>16.28382110595703</v>
+      </c>
+      <c r="K413">
+        <v>1.343642611683849</v>
+      </c>
+      <c r="L413" t="s">
+        <v>32</v>
+      </c>
+      <c r="M413" t="s">
+        <v>32</v>
+      </c>
+      <c r="N413" t="s">
+        <v>675</v>
+      </c>
+      <c r="O413" t="s">
+        <v>717</v>
+      </c>
+      <c r="P413">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>439</v>
+      </c>
+      <c r="E414">
+        <v>50</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414">
+        <v>14.63333333333333</v>
+      </c>
+      <c r="H414">
+        <v>16</v>
+      </c>
+      <c r="I414">
+        <v>9</v>
+      </c>
+      <c r="J414">
+        <v>20.92662739753723</v>
+      </c>
+      <c r="K414">
+        <v>1.508591065292096</v>
+      </c>
+      <c r="L414" t="s">
+        <v>32</v>
+      </c>
+      <c r="M414" t="s">
+        <v>32</v>
+      </c>
+      <c r="N414" t="s">
+        <v>676</v>
+      </c>
+      <c r="O414" t="s">
+        <v>717</v>
+      </c>
+      <c r="P414">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>6</v>
+      </c>
+      <c r="C415">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="D415">
+        <v>1437</v>
+      </c>
+      <c r="E415">
+        <v>59</v>
+      </c>
+      <c r="F415">
+        <v>2</v>
+      </c>
+      <c r="G415">
+        <v>21.13235294117647</v>
+      </c>
+      <c r="H415">
+        <v>4</v>
+      </c>
+      <c r="I415">
+        <v>9</v>
+      </c>
+      <c r="J415">
+        <v>244.9317746162415</v>
+      </c>
+      <c r="K415">
+        <v>1.96043656207367</v>
+      </c>
+      <c r="L415" t="s">
+        <v>32</v>
+      </c>
+      <c r="M415" t="s">
+        <v>259</v>
+      </c>
+      <c r="N415" t="s">
+        <v>677</v>
+      </c>
+      <c r="O415" t="s">
+        <v>716</v>
+      </c>
+      <c r="P415">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>6</v>
+      </c>
+      <c r="C416">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="D416">
+        <v>1192</v>
+      </c>
+      <c r="E416">
+        <v>46</v>
+      </c>
+      <c r="F416">
+        <v>2</v>
+      </c>
+      <c r="G416">
+        <v>17.27536231884058</v>
+      </c>
+      <c r="H416">
+        <v>19</v>
+      </c>
+      <c r="I416">
+        <v>9</v>
+      </c>
+      <c r="J416">
+        <v>189.1735575199127</v>
+      </c>
+      <c r="K416">
+        <v>1.593582887700535</v>
+      </c>
+      <c r="L416" t="s">
+        <v>32</v>
+      </c>
+      <c r="M416" t="s">
+        <v>260</v>
+      </c>
+      <c r="N416" t="s">
+        <v>678</v>
+      </c>
+      <c r="O416" t="s">
+        <v>716</v>
+      </c>
+      <c r="P416">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>6</v>
+      </c>
+      <c r="C417">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="D417">
+        <v>1372</v>
+      </c>
+      <c r="E417">
+        <v>56</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+      <c r="G417">
+        <v>23.6551724137931</v>
+      </c>
+      <c r="H417">
+        <v>32</v>
+      </c>
+      <c r="I417">
+        <v>39</v>
+      </c>
+      <c r="J417">
+        <v>445.3568947315216</v>
+      </c>
+      <c r="K417">
+        <v>2.177777777777778</v>
+      </c>
+      <c r="L417" t="s">
+        <v>32</v>
+      </c>
+      <c r="M417" t="s">
+        <v>261</v>
+      </c>
+      <c r="N417" t="s">
+        <v>679</v>
+      </c>
+      <c r="O417" t="s">
+        <v>716</v>
+      </c>
+      <c r="P417">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>6</v>
+      </c>
+      <c r="C418">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D418">
+        <v>1161</v>
+      </c>
+      <c r="E418">
+        <v>48</v>
+      </c>
+      <c r="F418">
+        <v>2</v>
+      </c>
+      <c r="G418">
+        <v>19.35</v>
+      </c>
+      <c r="H418">
+        <v>2</v>
+      </c>
+      <c r="I418">
+        <v>23</v>
+      </c>
+      <c r="J418">
+        <v>1643.586766719818</v>
+      </c>
+      <c r="K418">
+        <v>1.834123222748815</v>
+      </c>
+      <c r="L418" t="s">
+        <v>32</v>
+      </c>
+      <c r="M418" t="s">
+        <v>262</v>
+      </c>
+      <c r="N418" t="s">
+        <v>680</v>
+      </c>
+      <c r="O418" t="s">
+        <v>714</v>
+      </c>
+      <c r="P418">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="D419">
+        <v>1133</v>
+      </c>
+      <c r="E419">
+        <v>50</v>
+      </c>
+      <c r="F419">
+        <v>2</v>
+      </c>
+      <c r="G419">
+        <v>18.2741935483871</v>
+      </c>
+      <c r="H419">
+        <v>9</v>
+      </c>
+      <c r="I419">
+        <v>50</v>
+      </c>
+      <c r="J419">
+        <v>1120.29657959938</v>
+      </c>
+      <c r="K419">
+        <v>1.724505327245053</v>
+      </c>
+      <c r="L419" t="s">
+        <v>32</v>
+      </c>
+      <c r="M419" t="s">
+        <v>263</v>
+      </c>
+      <c r="N419" t="s">
+        <v>681</v>
+      </c>
+      <c r="O419" t="s">
+        <v>714</v>
+      </c>
+      <c r="P419">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
